--- a/CSGG.xlsx
+++ b/CSGG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d6corp-my.sharepoint.com/personal/nbookhout_d6inc_com/Documents/Desktop/Combined Specs 12292025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{2A656416-5D73-4A30-B570-CC3F74D94D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C793178-B640-49B8-8C5A-4D47B960F063}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{2A656416-5D73-4A30-B570-CC3F74D94D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69E85061-3135-46F7-8B4F-2BF8770111F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -4339,7 +4339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4349,9 +4349,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4663,14 +4660,14 @@
   <dimension ref="A1:F749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
@@ -4707,6 +4704,9 @@
       <c r="C2" t="s">
         <v>1412</v>
       </c>
+      <c r="D2" s="4">
+        <v>50</v>
+      </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
@@ -4724,6 +4724,9 @@
       <c r="C3" t="s">
         <v>1412</v>
       </c>
+      <c r="D3" s="4">
+        <v>50</v>
+      </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
@@ -4741,6 +4744,9 @@
       <c r="C4" t="s">
         <v>1412</v>
       </c>
+      <c r="D4" s="4">
+        <v>50</v>
+      </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
@@ -4758,6 +4764,9 @@
       <c r="C5" t="s">
         <v>1412</v>
       </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
@@ -4775,6 +4784,9 @@
       <c r="C6" t="s">
         <v>1412</v>
       </c>
+      <c r="D6" s="4">
+        <v>50</v>
+      </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
@@ -4792,6 +4804,9 @@
       <c r="C7" t="s">
         <v>1412</v>
       </c>
+      <c r="D7" s="4">
+        <v>50</v>
+      </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
@@ -4809,6 +4824,9 @@
       <c r="C8" t="s">
         <v>1412</v>
       </c>
+      <c r="D8" s="4">
+        <v>50</v>
+      </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
@@ -4826,6 +4844,9 @@
       <c r="C9" t="s">
         <v>1412</v>
       </c>
+      <c r="D9" s="4">
+        <v>50</v>
+      </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
@@ -4843,6 +4864,9 @@
       <c r="C10" t="s">
         <v>1412</v>
       </c>
+      <c r="D10" s="4">
+        <v>50</v>
+      </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
@@ -4860,6 +4884,9 @@
       <c r="C11" t="s">
         <v>1412</v>
       </c>
+      <c r="D11" s="4">
+        <v>50</v>
+      </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
@@ -4877,6 +4904,9 @@
       <c r="C12" t="s">
         <v>1412</v>
       </c>
+      <c r="D12" s="4">
+        <v>50</v>
+      </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
@@ -4894,6 +4924,9 @@
       <c r="C13" t="s">
         <v>1412</v>
       </c>
+      <c r="D13" s="4">
+        <v>50</v>
+      </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
@@ -4911,6 +4944,9 @@
       <c r="C14" t="s">
         <v>1412</v>
       </c>
+      <c r="D14" s="4">
+        <v>50</v>
+      </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
@@ -4928,6 +4964,9 @@
       <c r="C15" t="s">
         <v>1412</v>
       </c>
+      <c r="D15" s="4">
+        <v>50</v>
+      </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
@@ -4945,6 +4984,9 @@
       <c r="C16" t="s">
         <v>1412</v>
       </c>
+      <c r="D16" s="4">
+        <v>50</v>
+      </c>
       <c r="E16" t="s">
         <v>38</v>
       </c>
@@ -4962,6 +5004,9 @@
       <c r="C17" t="s">
         <v>1412</v>
       </c>
+      <c r="D17" s="4">
+        <v>50</v>
+      </c>
       <c r="E17" t="s">
         <v>41</v>
       </c>
@@ -4979,6 +5024,9 @@
       <c r="C18" t="s">
         <v>1412</v>
       </c>
+      <c r="D18" s="4">
+        <v>50</v>
+      </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
@@ -4996,6 +5044,9 @@
       <c r="C19" t="s">
         <v>1412</v>
       </c>
+      <c r="D19" s="4">
+        <v>50</v>
+      </c>
       <c r="E19" t="s">
         <v>46</v>
       </c>
@@ -5013,6 +5064,9 @@
       <c r="C20" t="s">
         <v>1412</v>
       </c>
+      <c r="D20" s="4">
+        <v>50</v>
+      </c>
       <c r="E20" t="s">
         <v>46</v>
       </c>
@@ -5030,6 +5084,9 @@
       <c r="C21" t="s">
         <v>1412</v>
       </c>
+      <c r="D21" s="4">
+        <v>50</v>
+      </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
@@ -5047,6 +5104,9 @@
       <c r="C22" t="s">
         <v>1412</v>
       </c>
+      <c r="D22" s="4">
+        <v>50</v>
+      </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
@@ -5064,6 +5124,9 @@
       <c r="C23" t="s">
         <v>1412</v>
       </c>
+      <c r="D23" s="4">
+        <v>50</v>
+      </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
@@ -5081,6 +5144,9 @@
       <c r="C24" t="s">
         <v>1412</v>
       </c>
+      <c r="D24" s="4">
+        <v>50</v>
+      </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
@@ -5098,6 +5164,9 @@
       <c r="C25" t="s">
         <v>1412</v>
       </c>
+      <c r="D25" s="4">
+        <v>50</v>
+      </c>
       <c r="E25" t="s">
         <v>5</v>
       </c>
@@ -5115,6 +5184,9 @@
       <c r="C26" t="s">
         <v>1412</v>
       </c>
+      <c r="D26" s="4">
+        <v>50</v>
+      </c>
       <c r="E26" t="s">
         <v>61</v>
       </c>
@@ -5132,6 +5204,9 @@
       <c r="C27" t="s">
         <v>1412</v>
       </c>
+      <c r="D27" s="4">
+        <v>50</v>
+      </c>
       <c r="E27" t="s">
         <v>15</v>
       </c>
@@ -5149,6 +5224,9 @@
       <c r="C28" t="s">
         <v>1412</v>
       </c>
+      <c r="D28" s="4">
+        <v>50</v>
+      </c>
       <c r="E28" t="s">
         <v>61</v>
       </c>
@@ -5166,6 +5244,9 @@
       <c r="C29" t="s">
         <v>1412</v>
       </c>
+      <c r="D29" s="4">
+        <v>50</v>
+      </c>
       <c r="E29" t="s">
         <v>38</v>
       </c>
@@ -5183,6 +5264,9 @@
       <c r="C30" t="s">
         <v>1412</v>
       </c>
+      <c r="D30" s="4">
+        <v>50</v>
+      </c>
       <c r="E30" t="s">
         <v>18</v>
       </c>
@@ -5200,6 +5284,9 @@
       <c r="C31" t="s">
         <v>1412</v>
       </c>
+      <c r="D31" s="4">
+        <v>50</v>
+      </c>
       <c r="E31" t="s">
         <v>46</v>
       </c>
@@ -5217,6 +5304,9 @@
       <c r="C32" t="s">
         <v>1412</v>
       </c>
+      <c r="D32" s="4">
+        <v>50</v>
+      </c>
       <c r="E32" t="s">
         <v>46</v>
       </c>
@@ -5234,6 +5324,9 @@
       <c r="C33" t="s">
         <v>1412</v>
       </c>
+      <c r="D33" s="4">
+        <v>50</v>
+      </c>
       <c r="E33" t="s">
         <v>18</v>
       </c>
@@ -5251,6 +5344,9 @@
       <c r="C34" t="s">
         <v>1412</v>
       </c>
+      <c r="D34" s="4">
+        <v>50</v>
+      </c>
       <c r="E34" t="s">
         <v>18</v>
       </c>
@@ -5268,6 +5364,9 @@
       <c r="C35" t="s">
         <v>1412</v>
       </c>
+      <c r="D35" s="4">
+        <v>50</v>
+      </c>
       <c r="E35" t="s">
         <v>46</v>
       </c>
@@ -5285,6 +5384,9 @@
       <c r="C36" t="s">
         <v>1412</v>
       </c>
+      <c r="D36" s="4">
+        <v>50</v>
+      </c>
       <c r="E36" t="s">
         <v>46</v>
       </c>
@@ -5302,6 +5404,9 @@
       <c r="C37" t="s">
         <v>1412</v>
       </c>
+      <c r="D37" s="4">
+        <v>50</v>
+      </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
@@ -5319,6 +5424,9 @@
       <c r="C38" t="s">
         <v>1412</v>
       </c>
+      <c r="D38" s="4">
+        <v>50</v>
+      </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
@@ -5336,6 +5444,9 @@
       <c r="C39" t="s">
         <v>1412</v>
       </c>
+      <c r="D39" s="4">
+        <v>50</v>
+      </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
@@ -5353,6 +5464,9 @@
       <c r="C40" t="s">
         <v>1412</v>
       </c>
+      <c r="D40" s="4">
+        <v>50</v>
+      </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
@@ -5370,6 +5484,9 @@
       <c r="C41" t="s">
         <v>1412</v>
       </c>
+      <c r="D41" s="4">
+        <v>50</v>
+      </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
@@ -5387,6 +5504,9 @@
       <c r="C42" t="s">
         <v>1412</v>
       </c>
+      <c r="D42" s="4">
+        <v>50</v>
+      </c>
       <c r="E42" t="s">
         <v>15</v>
       </c>
@@ -5404,6 +5524,9 @@
       <c r="C43" t="s">
         <v>1412</v>
       </c>
+      <c r="D43" s="4">
+        <v>50</v>
+      </c>
       <c r="E43" t="s">
         <v>15</v>
       </c>
@@ -5421,6 +5544,9 @@
       <c r="C44" t="s">
         <v>1412</v>
       </c>
+      <c r="D44" s="4">
+        <v>50</v>
+      </c>
       <c r="E44" t="s">
         <v>15</v>
       </c>
@@ -5438,6 +5564,9 @@
       <c r="C45" t="s">
         <v>1412</v>
       </c>
+      <c r="D45" s="4">
+        <v>50</v>
+      </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
@@ -5455,6 +5584,9 @@
       <c r="C46" t="s">
         <v>1412</v>
       </c>
+      <c r="D46" s="4">
+        <v>50</v>
+      </c>
       <c r="E46" t="s">
         <v>46</v>
       </c>
@@ -5472,6 +5604,9 @@
       <c r="C47" t="s">
         <v>1412</v>
       </c>
+      <c r="D47" s="4">
+        <v>50</v>
+      </c>
       <c r="E47" t="s">
         <v>46</v>
       </c>
@@ -5489,6 +5624,9 @@
       <c r="C48" t="s">
         <v>1412</v>
       </c>
+      <c r="D48" s="4">
+        <v>50</v>
+      </c>
       <c r="E48" t="s">
         <v>18</v>
       </c>
@@ -5506,6 +5644,9 @@
       <c r="C49" t="s">
         <v>1412</v>
       </c>
+      <c r="D49" s="4">
+        <v>50</v>
+      </c>
       <c r="E49" t="s">
         <v>108</v>
       </c>
@@ -5523,6 +5664,9 @@
       <c r="C50" t="s">
         <v>1412</v>
       </c>
+      <c r="D50" s="4">
+        <v>50</v>
+      </c>
       <c r="E50" t="s">
         <v>108</v>
       </c>
@@ -5540,6 +5684,9 @@
       <c r="C51" t="s">
         <v>1412</v>
       </c>
+      <c r="D51" s="4">
+        <v>50</v>
+      </c>
       <c r="E51" t="s">
         <v>108</v>
       </c>
@@ -5557,6 +5704,9 @@
       <c r="C52" t="s">
         <v>1412</v>
       </c>
+      <c r="D52" s="4">
+        <v>50</v>
+      </c>
       <c r="E52" t="s">
         <v>46</v>
       </c>
@@ -5574,6 +5724,9 @@
       <c r="C53" t="s">
         <v>1412</v>
       </c>
+      <c r="D53" s="4">
+        <v>50</v>
+      </c>
       <c r="E53" t="s">
         <v>116</v>
       </c>
@@ -5591,6 +5744,9 @@
       <c r="C54" t="s">
         <v>1412</v>
       </c>
+      <c r="D54" s="4">
+        <v>50</v>
+      </c>
       <c r="E54" t="s">
         <v>116</v>
       </c>
@@ -5608,6 +5764,9 @@
       <c r="C55" t="s">
         <v>1412</v>
       </c>
+      <c r="D55" s="4">
+        <v>50</v>
+      </c>
       <c r="E55" t="s">
         <v>46</v>
       </c>
@@ -5625,6 +5784,9 @@
       <c r="C56" t="s">
         <v>1412</v>
       </c>
+      <c r="D56" s="4">
+        <v>50</v>
+      </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
@@ -5642,6 +5804,9 @@
       <c r="C57" t="s">
         <v>1412</v>
       </c>
+      <c r="D57" s="4">
+        <v>50</v>
+      </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
@@ -5659,6 +5824,9 @@
       <c r="C58" t="s">
         <v>1412</v>
       </c>
+      <c r="D58" s="4">
+        <v>50</v>
+      </c>
       <c r="E58" t="s">
         <v>8</v>
       </c>
@@ -5676,6 +5844,9 @@
       <c r="C59" t="s">
         <v>1412</v>
       </c>
+      <c r="D59" s="4">
+        <v>50</v>
+      </c>
       <c r="E59" t="s">
         <v>8</v>
       </c>
@@ -5693,6 +5864,9 @@
       <c r="C60" t="s">
         <v>1412</v>
       </c>
+      <c r="D60" s="4">
+        <v>50</v>
+      </c>
       <c r="E60" t="s">
         <v>8</v>
       </c>
@@ -5710,6 +5884,9 @@
       <c r="C61" t="s">
         <v>1412</v>
       </c>
+      <c r="D61" s="4">
+        <v>50</v>
+      </c>
       <c r="E61" t="s">
         <v>8</v>
       </c>
@@ -5727,6 +5904,9 @@
       <c r="C62" t="s">
         <v>1412</v>
       </c>
+      <c r="D62" s="4">
+        <v>50</v>
+      </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
@@ -5744,6 +5924,9 @@
       <c r="C63" t="s">
         <v>1412</v>
       </c>
+      <c r="D63" s="4">
+        <v>50</v>
+      </c>
       <c r="E63" t="s">
         <v>15</v>
       </c>
@@ -5761,6 +5944,9 @@
       <c r="C64" t="s">
         <v>1412</v>
       </c>
+      <c r="D64" s="4">
+        <v>50</v>
+      </c>
       <c r="E64" t="s">
         <v>15</v>
       </c>
@@ -5778,6 +5964,9 @@
       <c r="C65" t="s">
         <v>1412</v>
       </c>
+      <c r="D65" s="4">
+        <v>50</v>
+      </c>
       <c r="E65" t="s">
         <v>15</v>
       </c>
@@ -5795,6 +5984,9 @@
       <c r="C66" t="s">
         <v>1412</v>
       </c>
+      <c r="D66" s="4">
+        <v>50</v>
+      </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
@@ -5812,6 +6004,9 @@
       <c r="C67" t="s">
         <v>1412</v>
       </c>
+      <c r="D67" s="4">
+        <v>50</v>
+      </c>
       <c r="E67" t="s">
         <v>46</v>
       </c>
@@ -5829,6 +6024,9 @@
       <c r="C68" t="s">
         <v>1412</v>
       </c>
+      <c r="D68" s="4">
+        <v>50</v>
+      </c>
       <c r="E68" t="s">
         <v>8</v>
       </c>
@@ -5846,6 +6044,9 @@
       <c r="C69" t="s">
         <v>1412</v>
       </c>
+      <c r="D69" s="4">
+        <v>50</v>
+      </c>
       <c r="E69" t="s">
         <v>15</v>
       </c>
@@ -5863,6 +6064,9 @@
       <c r="C70" t="s">
         <v>1412</v>
       </c>
+      <c r="D70" s="4">
+        <v>50</v>
+      </c>
       <c r="E70" t="s">
         <v>108</v>
       </c>
@@ -5880,6 +6084,9 @@
       <c r="C71" t="s">
         <v>1412</v>
       </c>
+      <c r="D71" s="4">
+        <v>50</v>
+      </c>
       <c r="E71" t="s">
         <v>150</v>
       </c>
@@ -5897,6 +6104,9 @@
       <c r="C72" t="s">
         <v>1412</v>
       </c>
+      <c r="D72" s="4">
+        <v>50</v>
+      </c>
       <c r="E72" t="s">
         <v>152</v>
       </c>
@@ -5914,6 +6124,9 @@
       <c r="C73" t="s">
         <v>1412</v>
       </c>
+      <c r="D73" s="4">
+        <v>50</v>
+      </c>
       <c r="E73" t="s">
         <v>61</v>
       </c>
@@ -5931,6 +6144,9 @@
       <c r="C74" t="s">
         <v>1412</v>
       </c>
+      <c r="D74" s="4">
+        <v>50</v>
+      </c>
       <c r="E74" t="s">
         <v>46</v>
       </c>
@@ -5948,6 +6164,9 @@
       <c r="C75" t="s">
         <v>1412</v>
       </c>
+      <c r="D75" s="4">
+        <v>50</v>
+      </c>
       <c r="E75" t="s">
         <v>61</v>
       </c>
@@ -5965,6 +6184,9 @@
       <c r="C76" t="s">
         <v>1412</v>
       </c>
+      <c r="D76" s="4">
+        <v>50</v>
+      </c>
       <c r="E76" t="s">
         <v>8</v>
       </c>
@@ -5982,6 +6204,9 @@
       <c r="C77" t="s">
         <v>1412</v>
       </c>
+      <c r="D77" s="4">
+        <v>50</v>
+      </c>
       <c r="E77" t="s">
         <v>46</v>
       </c>
@@ -5999,6 +6224,9 @@
       <c r="C78" t="s">
         <v>1412</v>
       </c>
+      <c r="D78" s="4">
+        <v>50</v>
+      </c>
       <c r="E78" t="s">
         <v>108</v>
       </c>
@@ -6016,6 +6244,9 @@
       <c r="C79" t="s">
         <v>1412</v>
       </c>
+      <c r="D79" s="4">
+        <v>50</v>
+      </c>
       <c r="E79" t="s">
         <v>166</v>
       </c>
@@ -6033,6 +6264,9 @@
       <c r="C80" t="s">
         <v>1412</v>
       </c>
+      <c r="D80" s="4">
+        <v>50</v>
+      </c>
       <c r="E80" t="s">
         <v>169</v>
       </c>
@@ -6050,6 +6284,9 @@
       <c r="C81" t="s">
         <v>1412</v>
       </c>
+      <c r="D81" s="4">
+        <v>50</v>
+      </c>
       <c r="E81" t="s">
         <v>172</v>
       </c>
@@ -6067,6 +6304,9 @@
       <c r="C82" t="s">
         <v>1412</v>
       </c>
+      <c r="D82" s="4">
+        <v>50</v>
+      </c>
       <c r="E82" t="s">
         <v>8</v>
       </c>
@@ -6084,6 +6324,9 @@
       <c r="C83" t="s">
         <v>1412</v>
       </c>
+      <c r="D83" s="4">
+        <v>50</v>
+      </c>
       <c r="E83" t="s">
         <v>8</v>
       </c>
@@ -6101,6 +6344,9 @@
       <c r="C84" t="s">
         <v>1412</v>
       </c>
+      <c r="D84" s="4">
+        <v>50</v>
+      </c>
       <c r="E84" t="s">
         <v>178</v>
       </c>
@@ -6118,6 +6364,9 @@
       <c r="C85" t="s">
         <v>1412</v>
       </c>
+      <c r="D85" s="4">
+        <v>50</v>
+      </c>
       <c r="E85" t="s">
         <v>178</v>
       </c>
@@ -6135,6 +6384,9 @@
       <c r="C86" t="s">
         <v>1412</v>
       </c>
+      <c r="D86" s="4">
+        <v>50</v>
+      </c>
       <c r="E86" t="s">
         <v>178</v>
       </c>
@@ -6152,6 +6404,9 @@
       <c r="C87" t="s">
         <v>1412</v>
       </c>
+      <c r="D87" s="4">
+        <v>50</v>
+      </c>
       <c r="E87" t="s">
         <v>178</v>
       </c>
@@ -6169,6 +6424,9 @@
       <c r="C88" t="s">
         <v>1412</v>
       </c>
+      <c r="D88" s="4">
+        <v>50</v>
+      </c>
       <c r="E88" t="s">
         <v>186</v>
       </c>
@@ -6186,6 +6444,9 @@
       <c r="C89" t="s">
         <v>1412</v>
       </c>
+      <c r="D89" s="4">
+        <v>50</v>
+      </c>
       <c r="E89" t="s">
         <v>150</v>
       </c>
@@ -6203,6 +6464,9 @@
       <c r="C90" t="s">
         <v>1412</v>
       </c>
+      <c r="D90" s="4">
+        <v>50</v>
+      </c>
       <c r="E90" t="s">
         <v>150</v>
       </c>
@@ -6220,6 +6484,9 @@
       <c r="C91" t="s">
         <v>1412</v>
       </c>
+      <c r="D91" s="4">
+        <v>50</v>
+      </c>
       <c r="E91" t="s">
         <v>150</v>
       </c>
@@ -6237,6 +6504,9 @@
       <c r="C92" t="s">
         <v>1412</v>
       </c>
+      <c r="D92" s="4">
+        <v>50</v>
+      </c>
       <c r="E92" t="s">
         <v>18</v>
       </c>
@@ -6254,6 +6524,9 @@
       <c r="C93" t="s">
         <v>1412</v>
       </c>
+      <c r="D93" s="4">
+        <v>50</v>
+      </c>
       <c r="E93" t="s">
         <v>197</v>
       </c>
@@ -6271,6 +6544,9 @@
       <c r="C94" t="s">
         <v>1412</v>
       </c>
+      <c r="D94" s="4">
+        <v>50</v>
+      </c>
       <c r="E94" t="s">
         <v>150</v>
       </c>
@@ -6288,6 +6564,9 @@
       <c r="C95" t="s">
         <v>1412</v>
       </c>
+      <c r="D95" s="4">
+        <v>50</v>
+      </c>
       <c r="E95" t="s">
         <v>202</v>
       </c>
@@ -6305,6 +6584,9 @@
       <c r="C96" t="s">
         <v>1412</v>
       </c>
+      <c r="D96" s="4">
+        <v>50</v>
+      </c>
       <c r="E96" t="s">
         <v>150</v>
       </c>
@@ -6322,6 +6604,9 @@
       <c r="C97" t="s">
         <v>1412</v>
       </c>
+      <c r="D97" s="4">
+        <v>50</v>
+      </c>
       <c r="E97" t="s">
         <v>202</v>
       </c>
@@ -6339,6 +6624,9 @@
       <c r="C98" t="s">
         <v>1412</v>
       </c>
+      <c r="D98" s="4">
+        <v>50</v>
+      </c>
       <c r="E98" t="s">
         <v>46</v>
       </c>
@@ -6356,6 +6644,9 @@
       <c r="C99" t="s">
         <v>1412</v>
       </c>
+      <c r="D99" s="4">
+        <v>50</v>
+      </c>
       <c r="E99" t="s">
         <v>150</v>
       </c>
@@ -6373,6 +6664,9 @@
       <c r="C100" t="s">
         <v>1412</v>
       </c>
+      <c r="D100" s="4">
+        <v>50</v>
+      </c>
       <c r="E100" t="s">
         <v>150</v>
       </c>
@@ -6390,6 +6684,9 @@
       <c r="C101" t="s">
         <v>1412</v>
       </c>
+      <c r="D101" s="4">
+        <v>50</v>
+      </c>
       <c r="E101" t="s">
         <v>150</v>
       </c>
@@ -6407,6 +6704,9 @@
       <c r="C102" t="s">
         <v>1412</v>
       </c>
+      <c r="D102" s="4">
+        <v>50</v>
+      </c>
       <c r="E102" t="s">
         <v>150</v>
       </c>
@@ -6424,6 +6724,9 @@
       <c r="C103" t="s">
         <v>1412</v>
       </c>
+      <c r="D103" s="4">
+        <v>50</v>
+      </c>
       <c r="E103" t="s">
         <v>46</v>
       </c>
@@ -6441,6 +6744,9 @@
       <c r="C104" t="s">
         <v>1412</v>
       </c>
+      <c r="D104" s="4">
+        <v>50</v>
+      </c>
       <c r="E104" t="s">
         <v>46</v>
       </c>
@@ -6458,6 +6764,9 @@
       <c r="C105" t="s">
         <v>1412</v>
       </c>
+      <c r="D105" s="4">
+        <v>50</v>
+      </c>
       <c r="E105" t="s">
         <v>46</v>
       </c>
@@ -6475,6 +6784,9 @@
       <c r="C106" t="s">
         <v>1412</v>
       </c>
+      <c r="D106" s="4">
+        <v>50</v>
+      </c>
       <c r="E106" t="s">
         <v>46</v>
       </c>
@@ -6492,6 +6804,9 @@
       <c r="C107" t="s">
         <v>1412</v>
       </c>
+      <c r="D107" s="4">
+        <v>50</v>
+      </c>
       <c r="E107" t="s">
         <v>46</v>
       </c>
@@ -6509,6 +6824,9 @@
       <c r="C108" t="s">
         <v>1412</v>
       </c>
+      <c r="D108" s="4">
+        <v>50</v>
+      </c>
       <c r="E108" t="s">
         <v>46</v>
       </c>
@@ -6526,6 +6844,9 @@
       <c r="C109" t="s">
         <v>1412</v>
       </c>
+      <c r="D109" s="4">
+        <v>50</v>
+      </c>
       <c r="E109" t="s">
         <v>8</v>
       </c>
@@ -6543,6 +6864,9 @@
       <c r="C110" t="s">
         <v>1412</v>
       </c>
+      <c r="D110" s="4">
+        <v>50</v>
+      </c>
       <c r="E110" t="s">
         <v>15</v>
       </c>
@@ -6560,6 +6884,9 @@
       <c r="C111" t="s">
         <v>1412</v>
       </c>
+      <c r="D111" s="4">
+        <v>50</v>
+      </c>
       <c r="E111" t="s">
         <v>46</v>
       </c>
@@ -6577,6 +6904,9 @@
       <c r="C112" t="s">
         <v>1412</v>
       </c>
+      <c r="D112" s="4">
+        <v>50</v>
+      </c>
       <c r="E112" t="s">
         <v>150</v>
       </c>
@@ -6592,6 +6922,9 @@
       <c r="C113" t="s">
         <v>1412</v>
       </c>
+      <c r="D113" s="4">
+        <v>50</v>
+      </c>
       <c r="E113" t="s">
         <v>150</v>
       </c>
@@ -6609,6 +6942,9 @@
       <c r="C114" t="s">
         <v>1412</v>
       </c>
+      <c r="D114" s="4">
+        <v>50</v>
+      </c>
       <c r="E114" t="s">
         <v>150</v>
       </c>
@@ -6624,6 +6960,9 @@
       <c r="C115" t="s">
         <v>1412</v>
       </c>
+      <c r="D115" s="4">
+        <v>50</v>
+      </c>
       <c r="E115" t="s">
         <v>46</v>
       </c>
@@ -6641,6 +6980,9 @@
       <c r="C116" t="s">
         <v>1412</v>
       </c>
+      <c r="D116" s="4">
+        <v>50</v>
+      </c>
       <c r="E116" t="s">
         <v>46</v>
       </c>
@@ -6658,6 +7000,9 @@
       <c r="C117" t="s">
         <v>1412</v>
       </c>
+      <c r="D117" s="4">
+        <v>50</v>
+      </c>
       <c r="E117" t="s">
         <v>15</v>
       </c>
@@ -6675,6 +7020,9 @@
       <c r="C118" t="s">
         <v>1412</v>
       </c>
+      <c r="D118" s="4">
+        <v>50</v>
+      </c>
       <c r="E118" t="s">
         <v>15</v>
       </c>
@@ -6692,6 +7040,9 @@
       <c r="C119" t="s">
         <v>1412</v>
       </c>
+      <c r="D119" s="4">
+        <v>50</v>
+      </c>
       <c r="E119" t="s">
         <v>46</v>
       </c>
@@ -6709,6 +7060,9 @@
       <c r="C120" t="s">
         <v>1412</v>
       </c>
+      <c r="D120" s="4">
+        <v>50</v>
+      </c>
       <c r="E120" t="s">
         <v>46</v>
       </c>
@@ -6726,6 +7080,9 @@
       <c r="C121" t="s">
         <v>1412</v>
       </c>
+      <c r="D121" s="4">
+        <v>50</v>
+      </c>
       <c r="E121" t="s">
         <v>46</v>
       </c>
@@ -6743,6 +7100,9 @@
       <c r="C122" t="s">
         <v>1412</v>
       </c>
+      <c r="D122" s="4">
+        <v>50</v>
+      </c>
       <c r="E122" t="s">
         <v>46</v>
       </c>
@@ -6760,6 +7120,9 @@
       <c r="C123" t="s">
         <v>1412</v>
       </c>
+      <c r="D123" s="4">
+        <v>50</v>
+      </c>
       <c r="E123" t="s">
         <v>46</v>
       </c>
@@ -6777,6 +7140,9 @@
       <c r="C124" t="s">
         <v>1412</v>
       </c>
+      <c r="D124" s="4">
+        <v>50</v>
+      </c>
       <c r="E124" t="s">
         <v>46</v>
       </c>
@@ -6794,6 +7160,9 @@
       <c r="C125" t="s">
         <v>1412</v>
       </c>
+      <c r="D125" s="4">
+        <v>50</v>
+      </c>
       <c r="E125" t="s">
         <v>5</v>
       </c>
@@ -6811,6 +7180,9 @@
       <c r="C126" t="s">
         <v>1412</v>
       </c>
+      <c r="D126" s="4">
+        <v>50</v>
+      </c>
       <c r="E126" t="s">
         <v>61</v>
       </c>
@@ -6828,6 +7200,9 @@
       <c r="C127" t="s">
         <v>1412</v>
       </c>
+      <c r="D127" s="4">
+        <v>50</v>
+      </c>
       <c r="E127" t="s">
         <v>61</v>
       </c>
@@ -6845,6 +7220,9 @@
       <c r="C128" t="s">
         <v>1412</v>
       </c>
+      <c r="D128" s="4">
+        <v>50</v>
+      </c>
       <c r="E128" t="s">
         <v>202</v>
       </c>
@@ -6862,6 +7240,9 @@
       <c r="C129" t="s">
         <v>1412</v>
       </c>
+      <c r="D129" s="4">
+        <v>50</v>
+      </c>
       <c r="E129" t="s">
         <v>18</v>
       </c>
@@ -6879,6 +7260,9 @@
       <c r="C130" t="s">
         <v>1412</v>
       </c>
+      <c r="D130" s="4">
+        <v>50</v>
+      </c>
       <c r="E130" t="s">
         <v>150</v>
       </c>
@@ -6896,6 +7280,9 @@
       <c r="C131" t="s">
         <v>1412</v>
       </c>
+      <c r="D131" s="4">
+        <v>50</v>
+      </c>
       <c r="E131" t="s">
         <v>8</v>
       </c>
@@ -6913,6 +7300,9 @@
       <c r="C132" t="s">
         <v>1412</v>
       </c>
+      <c r="D132" s="4">
+        <v>50</v>
+      </c>
       <c r="E132" t="s">
         <v>275</v>
       </c>
@@ -6930,6 +7320,9 @@
       <c r="C133" t="s">
         <v>1412</v>
       </c>
+      <c r="D133" s="4">
+        <v>50</v>
+      </c>
       <c r="E133" t="s">
         <v>275</v>
       </c>
@@ -6947,6 +7340,9 @@
       <c r="C134" t="s">
         <v>1412</v>
       </c>
+      <c r="D134" s="4">
+        <v>50</v>
+      </c>
       <c r="E134" t="s">
         <v>5</v>
       </c>
@@ -6964,6 +7360,9 @@
       <c r="C135" t="s">
         <v>1412</v>
       </c>
+      <c r="D135" s="4">
+        <v>50</v>
+      </c>
       <c r="E135" t="s">
         <v>150</v>
       </c>
@@ -6981,6 +7380,9 @@
       <c r="C136" t="s">
         <v>1412</v>
       </c>
+      <c r="D136" s="4">
+        <v>50</v>
+      </c>
       <c r="E136" t="s">
         <v>61</v>
       </c>
@@ -6998,6 +7400,9 @@
       <c r="C137" t="s">
         <v>1412</v>
       </c>
+      <c r="D137" s="4">
+        <v>50</v>
+      </c>
       <c r="E137" t="s">
         <v>8</v>
       </c>
@@ -7015,6 +7420,9 @@
       <c r="C138" t="s">
         <v>1412</v>
       </c>
+      <c r="D138" s="4">
+        <v>50</v>
+      </c>
       <c r="E138" t="s">
         <v>61</v>
       </c>
@@ -7032,6 +7440,9 @@
       <c r="C139" t="s">
         <v>1412</v>
       </c>
+      <c r="D139" s="4">
+        <v>50</v>
+      </c>
       <c r="E139" t="s">
         <v>197</v>
       </c>
@@ -7049,6 +7460,9 @@
       <c r="C140" t="s">
         <v>1412</v>
       </c>
+      <c r="D140" s="4">
+        <v>50</v>
+      </c>
       <c r="E140" t="s">
         <v>8</v>
       </c>
@@ -7066,6 +7480,9 @@
       <c r="C141" t="s">
         <v>1412</v>
       </c>
+      <c r="D141" s="4">
+        <v>50</v>
+      </c>
       <c r="E141" t="s">
         <v>293</v>
       </c>
@@ -7083,6 +7500,9 @@
       <c r="C142" t="s">
         <v>1412</v>
       </c>
+      <c r="D142" s="4">
+        <v>50</v>
+      </c>
       <c r="E142" t="s">
         <v>61</v>
       </c>
@@ -7100,6 +7520,9 @@
       <c r="C143" t="s">
         <v>1412</v>
       </c>
+      <c r="D143" s="4">
+        <v>50</v>
+      </c>
       <c r="E143" t="s">
         <v>297</v>
       </c>
@@ -7117,6 +7540,9 @@
       <c r="C144" t="s">
         <v>1412</v>
       </c>
+      <c r="D144" s="4">
+        <v>50</v>
+      </c>
       <c r="E144" t="s">
         <v>150</v>
       </c>
@@ -7134,6 +7560,9 @@
       <c r="C145" t="s">
         <v>1412</v>
       </c>
+      <c r="D145" s="4">
+        <v>50</v>
+      </c>
       <c r="E145" t="s">
         <v>302</v>
       </c>
@@ -7151,6 +7580,9 @@
       <c r="C146" t="s">
         <v>1412</v>
       </c>
+      <c r="D146" s="4">
+        <v>50</v>
+      </c>
       <c r="E146" t="s">
         <v>305</v>
       </c>
@@ -7168,6 +7600,9 @@
       <c r="C147" t="s">
         <v>1412</v>
       </c>
+      <c r="D147" s="4">
+        <v>50</v>
+      </c>
       <c r="E147" t="s">
         <v>305</v>
       </c>
@@ -7185,6 +7620,9 @@
       <c r="C148" t="s">
         <v>1412</v>
       </c>
+      <c r="D148" s="4">
+        <v>50</v>
+      </c>
       <c r="E148" t="s">
         <v>18</v>
       </c>
@@ -7202,6 +7640,9 @@
       <c r="C149" t="s">
         <v>1412</v>
       </c>
+      <c r="D149" s="4">
+        <v>50</v>
+      </c>
       <c r="E149" t="s">
         <v>18</v>
       </c>
@@ -7219,6 +7660,9 @@
       <c r="C150" t="s">
         <v>1412</v>
       </c>
+      <c r="D150" s="4">
+        <v>50</v>
+      </c>
       <c r="E150" t="s">
         <v>46</v>
       </c>
@@ -7236,6 +7680,9 @@
       <c r="C151" t="s">
         <v>1412</v>
       </c>
+      <c r="D151" s="4">
+        <v>50</v>
+      </c>
       <c r="E151" t="s">
         <v>302</v>
       </c>
@@ -7253,6 +7700,9 @@
       <c r="C152" t="s">
         <v>1412</v>
       </c>
+      <c r="D152" s="4">
+        <v>50</v>
+      </c>
       <c r="E152" t="s">
         <v>108</v>
       </c>
@@ -7270,6 +7720,9 @@
       <c r="C153" t="s">
         <v>1412</v>
       </c>
+      <c r="D153" s="4">
+        <v>50</v>
+      </c>
       <c r="E153" t="s">
         <v>18</v>
       </c>
@@ -7287,6 +7740,9 @@
       <c r="C154" t="s">
         <v>1412</v>
       </c>
+      <c r="D154" s="4">
+        <v>50</v>
+      </c>
       <c r="E154" t="s">
         <v>152</v>
       </c>
@@ -7304,6 +7760,9 @@
       <c r="C155" t="s">
         <v>1412</v>
       </c>
+      <c r="D155" s="4">
+        <v>50</v>
+      </c>
       <c r="E155" t="s">
         <v>18</v>
       </c>
@@ -7321,6 +7780,9 @@
       <c r="C156" t="s">
         <v>1412</v>
       </c>
+      <c r="D156" s="4">
+        <v>50</v>
+      </c>
       <c r="E156" t="s">
         <v>324</v>
       </c>
@@ -7338,6 +7800,9 @@
       <c r="C157" t="s">
         <v>1412</v>
       </c>
+      <c r="D157" s="4">
+        <v>50</v>
+      </c>
       <c r="E157" t="s">
         <v>327</v>
       </c>
@@ -7355,6 +7820,9 @@
       <c r="C158" t="s">
         <v>1412</v>
       </c>
+      <c r="D158" s="4">
+        <v>50</v>
+      </c>
       <c r="E158" t="s">
         <v>330</v>
       </c>
@@ -7372,6 +7840,9 @@
       <c r="C159" t="s">
         <v>1412</v>
       </c>
+      <c r="D159" s="4">
+        <v>50</v>
+      </c>
       <c r="E159" t="s">
         <v>333</v>
       </c>
@@ -7389,6 +7860,9 @@
       <c r="C160" t="s">
         <v>1412</v>
       </c>
+      <c r="D160" s="4">
+        <v>50</v>
+      </c>
       <c r="E160" t="s">
         <v>46</v>
       </c>
@@ -7406,6 +7880,9 @@
       <c r="C161" t="s">
         <v>1412</v>
       </c>
+      <c r="D161" s="4">
+        <v>50</v>
+      </c>
       <c r="E161" t="s">
         <v>327</v>
       </c>
@@ -7423,6 +7900,9 @@
       <c r="C162" t="s">
         <v>1412</v>
       </c>
+      <c r="D162" s="4">
+        <v>50</v>
+      </c>
       <c r="E162" t="s">
         <v>324</v>
       </c>
@@ -7440,6 +7920,9 @@
       <c r="C163" t="s">
         <v>1412</v>
       </c>
+      <c r="D163" s="4">
+        <v>50</v>
+      </c>
       <c r="E163" t="s">
         <v>18</v>
       </c>
@@ -7457,6 +7940,9 @@
       <c r="C164" t="s">
         <v>1412</v>
       </c>
+      <c r="D164" s="4">
+        <v>50</v>
+      </c>
       <c r="E164" t="s">
         <v>18</v>
       </c>
@@ -7474,6 +7960,9 @@
       <c r="C165" t="s">
         <v>1412</v>
       </c>
+      <c r="D165" s="4">
+        <v>50</v>
+      </c>
       <c r="E165" t="s">
         <v>324</v>
       </c>
@@ -7491,6 +7980,9 @@
       <c r="C166" t="s">
         <v>1412</v>
       </c>
+      <c r="D166" s="4">
+        <v>50</v>
+      </c>
       <c r="E166" t="s">
         <v>333</v>
       </c>
@@ -7508,6 +8000,9 @@
       <c r="C167" t="s">
         <v>1412</v>
       </c>
+      <c r="D167" s="4">
+        <v>50</v>
+      </c>
       <c r="E167" t="s">
         <v>324</v>
       </c>
@@ -7525,6 +8020,9 @@
       <c r="C168" t="s">
         <v>1412</v>
       </c>
+      <c r="D168" s="4">
+        <v>50</v>
+      </c>
       <c r="E168" t="s">
         <v>8</v>
       </c>
@@ -7542,6 +8040,9 @@
       <c r="C169" t="s">
         <v>1412</v>
       </c>
+      <c r="D169" s="4">
+        <v>50</v>
+      </c>
       <c r="E169" t="s">
         <v>8</v>
       </c>
@@ -7559,6 +8060,9 @@
       <c r="C170" t="s">
         <v>1412</v>
       </c>
+      <c r="D170" s="4">
+        <v>50</v>
+      </c>
       <c r="E170" t="s">
         <v>8</v>
       </c>
@@ -7576,6 +8080,9 @@
       <c r="C171" t="s">
         <v>1412</v>
       </c>
+      <c r="D171" s="4">
+        <v>50</v>
+      </c>
       <c r="E171" t="s">
         <v>297</v>
       </c>
@@ -7593,6 +8100,9 @@
       <c r="C172" t="s">
         <v>1412</v>
       </c>
+      <c r="D172" s="4">
+        <v>50</v>
+      </c>
       <c r="E172" t="s">
         <v>352</v>
       </c>
@@ -7610,6 +8120,9 @@
       <c r="C173" t="s">
         <v>1412</v>
       </c>
+      <c r="D173" s="4">
+        <v>50</v>
+      </c>
       <c r="E173" t="s">
         <v>330</v>
       </c>
@@ -7627,6 +8140,9 @@
       <c r="C174" t="s">
         <v>1412</v>
       </c>
+      <c r="D174" s="4">
+        <v>50</v>
+      </c>
       <c r="E174" t="s">
         <v>116</v>
       </c>
@@ -7644,6 +8160,9 @@
       <c r="C175" t="s">
         <v>1412</v>
       </c>
+      <c r="D175" s="4">
+        <v>50</v>
+      </c>
       <c r="E175" t="s">
         <v>116</v>
       </c>
@@ -7661,6 +8180,9 @@
       <c r="C176" t="s">
         <v>1412</v>
       </c>
+      <c r="D176" s="4">
+        <v>50</v>
+      </c>
       <c r="E176" t="s">
         <v>8</v>
       </c>
@@ -7678,6 +8200,9 @@
       <c r="C177" t="s">
         <v>1412</v>
       </c>
+      <c r="D177" s="4">
+        <v>50</v>
+      </c>
       <c r="E177" t="s">
         <v>324</v>
       </c>
@@ -7695,6 +8220,9 @@
       <c r="C178" t="s">
         <v>1412</v>
       </c>
+      <c r="D178" s="4">
+        <v>50</v>
+      </c>
       <c r="E178" t="s">
         <v>324</v>
       </c>
@@ -7712,6 +8240,9 @@
       <c r="C179" t="s">
         <v>1412</v>
       </c>
+      <c r="D179" s="4">
+        <v>50</v>
+      </c>
       <c r="E179" t="s">
         <v>302</v>
       </c>
@@ -7729,6 +8260,9 @@
       <c r="C180" t="s">
         <v>1412</v>
       </c>
+      <c r="D180" s="4">
+        <v>50</v>
+      </c>
       <c r="E180" t="s">
         <v>302</v>
       </c>
@@ -7746,6 +8280,9 @@
       <c r="C181" t="s">
         <v>1412</v>
       </c>
+      <c r="D181" s="4">
+        <v>50</v>
+      </c>
       <c r="E181" t="s">
         <v>367</v>
       </c>
@@ -7763,6 +8300,9 @@
       <c r="C182" t="s">
         <v>1412</v>
       </c>
+      <c r="D182" s="4">
+        <v>50</v>
+      </c>
       <c r="E182" t="s">
         <v>302</v>
       </c>
@@ -7780,6 +8320,9 @@
       <c r="C183" t="s">
         <v>1412</v>
       </c>
+      <c r="D183" s="4">
+        <v>50</v>
+      </c>
       <c r="E183" t="s">
         <v>302</v>
       </c>
@@ -7797,6 +8340,9 @@
       <c r="C184" t="s">
         <v>1412</v>
       </c>
+      <c r="D184" s="4">
+        <v>50</v>
+      </c>
       <c r="E184" t="s">
         <v>302</v>
       </c>
@@ -7814,6 +8360,9 @@
       <c r="C185" t="s">
         <v>1412</v>
       </c>
+      <c r="D185" s="4">
+        <v>50</v>
+      </c>
       <c r="E185" t="s">
         <v>297</v>
       </c>
@@ -7831,6 +8380,9 @@
       <c r="C186" t="s">
         <v>1412</v>
       </c>
+      <c r="D186" s="4">
+        <v>50</v>
+      </c>
       <c r="E186" t="s">
         <v>46</v>
       </c>
@@ -7848,6 +8400,9 @@
       <c r="C187" t="s">
         <v>1412</v>
       </c>
+      <c r="D187" s="4">
+        <v>50</v>
+      </c>
       <c r="E187" t="s">
         <v>166</v>
       </c>
@@ -7865,6 +8420,9 @@
       <c r="C188" t="s">
         <v>1412</v>
       </c>
+      <c r="D188" s="4">
+        <v>50</v>
+      </c>
       <c r="E188" t="s">
         <v>61</v>
       </c>
@@ -7882,6 +8440,9 @@
       <c r="C189" t="s">
         <v>1412</v>
       </c>
+      <c r="D189" s="4">
+        <v>50</v>
+      </c>
       <c r="E189" t="s">
         <v>61</v>
       </c>
@@ -7899,6 +8460,9 @@
       <c r="C190" t="s">
         <v>1412</v>
       </c>
+      <c r="D190" s="4">
+        <v>50</v>
+      </c>
       <c r="E190" t="s">
         <v>46</v>
       </c>
@@ -7916,6 +8480,9 @@
       <c r="C191" t="s">
         <v>1412</v>
       </c>
+      <c r="D191" s="4">
+        <v>50</v>
+      </c>
       <c r="E191" t="s">
         <v>46</v>
       </c>
@@ -7933,6 +8500,9 @@
       <c r="C192" t="s">
         <v>1412</v>
       </c>
+      <c r="D192" s="4">
+        <v>50</v>
+      </c>
       <c r="E192" t="s">
         <v>61</v>
       </c>
@@ -7950,6 +8520,9 @@
       <c r="C193" t="s">
         <v>1412</v>
       </c>
+      <c r="D193" s="4">
+        <v>50</v>
+      </c>
       <c r="E193" t="s">
         <v>61</v>
       </c>
@@ -7967,6 +8540,9 @@
       <c r="C194" t="s">
         <v>1412</v>
       </c>
+      <c r="D194" s="4">
+        <v>50</v>
+      </c>
       <c r="E194" t="s">
         <v>46</v>
       </c>
@@ -7984,6 +8560,9 @@
       <c r="C195" t="s">
         <v>1412</v>
       </c>
+      <c r="D195" s="4">
+        <v>50</v>
+      </c>
       <c r="E195" t="s">
         <v>152</v>
       </c>
@@ -8001,6 +8580,9 @@
       <c r="C196" t="s">
         <v>1412</v>
       </c>
+      <c r="D196" s="4">
+        <v>50</v>
+      </c>
       <c r="E196" t="s">
         <v>152</v>
       </c>
@@ -8018,6 +8600,9 @@
       <c r="C197" t="s">
         <v>1412</v>
       </c>
+      <c r="D197" s="4">
+        <v>50</v>
+      </c>
       <c r="E197" t="s">
         <v>152</v>
       </c>
@@ -8035,6 +8620,9 @@
       <c r="C198" t="s">
         <v>1412</v>
       </c>
+      <c r="D198" s="4">
+        <v>50</v>
+      </c>
       <c r="E198" t="s">
         <v>327</v>
       </c>
@@ -8052,6 +8640,9 @@
       <c r="C199" t="s">
         <v>1412</v>
       </c>
+      <c r="D199" s="4">
+        <v>50</v>
+      </c>
       <c r="E199" t="s">
         <v>297</v>
       </c>
@@ -8069,6 +8660,9 @@
       <c r="C200" t="s">
         <v>1412</v>
       </c>
+      <c r="D200" s="4">
+        <v>50</v>
+      </c>
       <c r="E200" t="s">
         <v>108</v>
       </c>
@@ -8086,6 +8680,9 @@
       <c r="C201" t="s">
         <v>1412</v>
       </c>
+      <c r="D201" s="4">
+        <v>50</v>
+      </c>
       <c r="E201" t="s">
         <v>61</v>
       </c>
@@ -8103,6 +8700,9 @@
       <c r="C202" t="s">
         <v>1412</v>
       </c>
+      <c r="D202" s="4">
+        <v>50</v>
+      </c>
       <c r="E202" t="s">
         <v>297</v>
       </c>
@@ -8120,6 +8720,9 @@
       <c r="C203" t="s">
         <v>1412</v>
       </c>
+      <c r="D203" s="4">
+        <v>50</v>
+      </c>
       <c r="E203" t="s">
         <v>152</v>
       </c>
@@ -8137,6 +8740,9 @@
       <c r="C204" t="s">
         <v>1412</v>
       </c>
+      <c r="D204" s="4">
+        <v>50</v>
+      </c>
       <c r="E204" t="s">
         <v>327</v>
       </c>
@@ -8154,6 +8760,9 @@
       <c r="C205" t="s">
         <v>1412</v>
       </c>
+      <c r="D205" s="4">
+        <v>50</v>
+      </c>
       <c r="E205" t="s">
         <v>46</v>
       </c>
@@ -8171,6 +8780,9 @@
       <c r="C206" t="s">
         <v>1412</v>
       </c>
+      <c r="D206" s="4">
+        <v>50</v>
+      </c>
       <c r="E206" t="s">
         <v>108</v>
       </c>
@@ -8188,6 +8800,9 @@
       <c r="C207" t="s">
         <v>1412</v>
       </c>
+      <c r="D207" s="4">
+        <v>50</v>
+      </c>
       <c r="E207" t="s">
         <v>8</v>
       </c>
@@ -8205,6 +8820,9 @@
       <c r="C208" t="s">
         <v>1412</v>
       </c>
+      <c r="D208" s="4">
+        <v>50</v>
+      </c>
       <c r="E208" t="s">
         <v>327</v>
       </c>
@@ -8222,6 +8840,9 @@
       <c r="C209" t="s">
         <v>1412</v>
       </c>
+      <c r="D209" s="4">
+        <v>50</v>
+      </c>
       <c r="E209" t="s">
         <v>61</v>
       </c>
@@ -8239,6 +8860,9 @@
       <c r="C210" t="s">
         <v>1412</v>
       </c>
+      <c r="D210" s="4">
+        <v>50</v>
+      </c>
       <c r="E210" t="s">
         <v>61</v>
       </c>
@@ -8256,6 +8880,9 @@
       <c r="C211" t="s">
         <v>1412</v>
       </c>
+      <c r="D211" s="4">
+        <v>50</v>
+      </c>
       <c r="E211" t="s">
         <v>61</v>
       </c>
@@ -8273,6 +8900,9 @@
       <c r="C212" t="s">
         <v>1412</v>
       </c>
+      <c r="D212" s="4">
+        <v>50</v>
+      </c>
       <c r="E212" t="s">
         <v>46</v>
       </c>
@@ -8290,6 +8920,9 @@
       <c r="C213" t="s">
         <v>1412</v>
       </c>
+      <c r="D213" s="4">
+        <v>50</v>
+      </c>
       <c r="E213" t="s">
         <v>407</v>
       </c>
@@ -8307,6 +8940,9 @@
       <c r="C214" t="s">
         <v>1412</v>
       </c>
+      <c r="D214" s="4">
+        <v>50</v>
+      </c>
       <c r="E214" t="s">
         <v>108</v>
       </c>
@@ -8324,6 +8960,9 @@
       <c r="C215" t="s">
         <v>1412</v>
       </c>
+      <c r="D215" s="4">
+        <v>50</v>
+      </c>
       <c r="E215" t="s">
         <v>407</v>
       </c>
@@ -8341,6 +8980,9 @@
       <c r="C216" t="s">
         <v>1412</v>
       </c>
+      <c r="D216" s="4">
+        <v>50</v>
+      </c>
       <c r="E216" t="s">
         <v>297</v>
       </c>
@@ -8358,6 +9000,9 @@
       <c r="C217" t="s">
         <v>1412</v>
       </c>
+      <c r="D217" s="4">
+        <v>50</v>
+      </c>
       <c r="E217" t="s">
         <v>61</v>
       </c>
@@ -8375,6 +9020,9 @@
       <c r="C218" t="s">
         <v>1412</v>
       </c>
+      <c r="D218" s="4">
+        <v>50</v>
+      </c>
       <c r="E218" t="s">
         <v>61</v>
       </c>
@@ -8392,6 +9040,9 @@
       <c r="C219" t="s">
         <v>1412</v>
       </c>
+      <c r="D219" s="4">
+        <v>50</v>
+      </c>
       <c r="E219" t="s">
         <v>46</v>
       </c>
@@ -8409,6 +9060,9 @@
       <c r="C220" t="s">
         <v>1412</v>
       </c>
+      <c r="D220" s="4">
+        <v>50</v>
+      </c>
       <c r="E220" t="s">
         <v>202</v>
       </c>
@@ -8426,6 +9080,9 @@
       <c r="C221" t="s">
         <v>1412</v>
       </c>
+      <c r="D221" s="4">
+        <v>50</v>
+      </c>
       <c r="E221" t="s">
         <v>152</v>
       </c>
@@ -8443,6 +9100,9 @@
       <c r="C222" t="s">
         <v>1412</v>
       </c>
+      <c r="D222" s="4">
+        <v>50</v>
+      </c>
       <c r="E222" t="s">
         <v>46</v>
       </c>
@@ -8460,6 +9120,9 @@
       <c r="C223" t="s">
         <v>1412</v>
       </c>
+      <c r="D223" s="4">
+        <v>50</v>
+      </c>
       <c r="E223" t="s">
         <v>108</v>
       </c>
@@ -8477,6 +9140,9 @@
       <c r="C224" t="s">
         <v>1412</v>
       </c>
+      <c r="D224" s="4">
+        <v>50</v>
+      </c>
       <c r="E224" t="s">
         <v>108</v>
       </c>
@@ -8494,6 +9160,9 @@
       <c r="C225" t="s">
         <v>1412</v>
       </c>
+      <c r="D225" s="4">
+        <v>50</v>
+      </c>
       <c r="E225" t="s">
         <v>302</v>
       </c>
@@ -8511,6 +9180,9 @@
       <c r="C226" t="s">
         <v>1412</v>
       </c>
+      <c r="D226" s="4">
+        <v>50</v>
+      </c>
       <c r="E226" t="s">
         <v>18</v>
       </c>
@@ -8528,6 +9200,9 @@
       <c r="C227" t="s">
         <v>1412</v>
       </c>
+      <c r="D227" s="4">
+        <v>50</v>
+      </c>
       <c r="E227" t="s">
         <v>324</v>
       </c>
@@ -8545,6 +9220,9 @@
       <c r="C228" t="s">
         <v>1412</v>
       </c>
+      <c r="D228" s="4">
+        <v>50</v>
+      </c>
       <c r="E228" t="s">
         <v>324</v>
       </c>
@@ -8562,6 +9240,9 @@
       <c r="C229" t="s">
         <v>1412</v>
       </c>
+      <c r="D229" s="4">
+        <v>50</v>
+      </c>
       <c r="E229" t="s">
         <v>61</v>
       </c>
@@ -8579,6 +9260,9 @@
       <c r="C230" t="s">
         <v>1412</v>
       </c>
+      <c r="D230" s="4">
+        <v>50</v>
+      </c>
       <c r="E230" t="s">
         <v>8</v>
       </c>
@@ -8596,6 +9280,9 @@
       <c r="C231" t="s">
         <v>1412</v>
       </c>
+      <c r="D231" s="4">
+        <v>50</v>
+      </c>
       <c r="E231" t="s">
         <v>8</v>
       </c>
@@ -8613,6 +9300,9 @@
       <c r="C232" t="s">
         <v>1412</v>
       </c>
+      <c r="D232" s="4">
+        <v>50</v>
+      </c>
       <c r="E232" t="s">
         <v>46</v>
       </c>
@@ -8630,6 +9320,9 @@
       <c r="C233" t="s">
         <v>1412</v>
       </c>
+      <c r="D233" s="4">
+        <v>50</v>
+      </c>
       <c r="E233" t="s">
         <v>352</v>
       </c>
@@ -8647,6 +9340,9 @@
       <c r="C234" t="s">
         <v>1412</v>
       </c>
+      <c r="D234" s="4">
+        <v>50</v>
+      </c>
       <c r="E234" t="s">
         <v>352</v>
       </c>
@@ -8664,6 +9360,9 @@
       <c r="C235" t="s">
         <v>1412</v>
       </c>
+      <c r="D235" s="4">
+        <v>50</v>
+      </c>
       <c r="E235" t="s">
         <v>152</v>
       </c>
@@ -8681,6 +9380,9 @@
       <c r="C236" t="s">
         <v>1412</v>
       </c>
+      <c r="D236" s="4">
+        <v>50</v>
+      </c>
       <c r="E236" t="s">
         <v>152</v>
       </c>
@@ -8698,6 +9400,9 @@
       <c r="C237" t="s">
         <v>1412</v>
       </c>
+      <c r="D237" s="4">
+        <v>50</v>
+      </c>
       <c r="E237" t="s">
         <v>302</v>
       </c>
@@ -8715,6 +9420,9 @@
       <c r="C238" t="s">
         <v>1412</v>
       </c>
+      <c r="D238" s="4">
+        <v>50</v>
+      </c>
       <c r="E238" t="s">
         <v>8</v>
       </c>
@@ -8732,6 +9440,9 @@
       <c r="C239" t="s">
         <v>1412</v>
       </c>
+      <c r="D239" s="4">
+        <v>50</v>
+      </c>
       <c r="E239" t="s">
         <v>8</v>
       </c>
@@ -8749,6 +9460,9 @@
       <c r="C240" t="s">
         <v>1412</v>
       </c>
+      <c r="D240" s="4">
+        <v>50</v>
+      </c>
       <c r="E240" t="s">
         <v>46</v>
       </c>
@@ -8766,6 +9480,9 @@
       <c r="C241" t="s">
         <v>1412</v>
       </c>
+      <c r="D241" s="4">
+        <v>50</v>
+      </c>
       <c r="E241" t="s">
         <v>302</v>
       </c>
@@ -8783,6 +9500,9 @@
       <c r="C242" t="s">
         <v>1412</v>
       </c>
+      <c r="D242" s="4">
+        <v>50</v>
+      </c>
       <c r="E242" t="s">
         <v>302</v>
       </c>
@@ -8800,6 +9520,9 @@
       <c r="C243" t="s">
         <v>1412</v>
       </c>
+      <c r="D243" s="4">
+        <v>50</v>
+      </c>
       <c r="E243" t="s">
         <v>152</v>
       </c>
@@ -8817,6 +9540,9 @@
       <c r="C244" t="s">
         <v>1412</v>
       </c>
+      <c r="D244" s="4">
+        <v>50</v>
+      </c>
       <c r="E244" t="s">
         <v>46</v>
       </c>
@@ -8834,6 +9560,9 @@
       <c r="C245" t="s">
         <v>1412</v>
       </c>
+      <c r="D245" s="4">
+        <v>50</v>
+      </c>
       <c r="E245" t="s">
         <v>327</v>
       </c>
@@ -8851,6 +9580,9 @@
       <c r="C246" t="s">
         <v>1412</v>
       </c>
+      <c r="D246" s="4">
+        <v>50</v>
+      </c>
       <c r="E246" t="s">
         <v>8</v>
       </c>
@@ -8868,6 +9600,9 @@
       <c r="C247" t="s">
         <v>1412</v>
       </c>
+      <c r="D247" s="4">
+        <v>50</v>
+      </c>
       <c r="E247" t="s">
         <v>449</v>
       </c>
@@ -8885,6 +9620,9 @@
       <c r="C248" t="s">
         <v>1412</v>
       </c>
+      <c r="D248" s="4">
+        <v>50</v>
+      </c>
       <c r="E248" t="s">
         <v>327</v>
       </c>
@@ -8902,6 +9640,9 @@
       <c r="C249" t="s">
         <v>1412</v>
       </c>
+      <c r="D249" s="4">
+        <v>50</v>
+      </c>
       <c r="E249" t="s">
         <v>327</v>
       </c>
@@ -8919,6 +9660,9 @@
       <c r="C250" t="s">
         <v>1412</v>
       </c>
+      <c r="D250" s="4">
+        <v>50</v>
+      </c>
       <c r="E250" t="s">
         <v>302</v>
       </c>
@@ -8936,6 +9680,9 @@
       <c r="C251" t="s">
         <v>1412</v>
       </c>
+      <c r="D251" s="4">
+        <v>50</v>
+      </c>
       <c r="E251" t="s">
         <v>46</v>
       </c>
@@ -8953,6 +9700,9 @@
       <c r="C252" t="s">
         <v>1412</v>
       </c>
+      <c r="D252" s="4">
+        <v>50</v>
+      </c>
       <c r="E252" t="s">
         <v>46</v>
       </c>
@@ -8970,6 +9720,9 @@
       <c r="C253" t="s">
         <v>1412</v>
       </c>
+      <c r="D253" s="4">
+        <v>50</v>
+      </c>
       <c r="E253" t="s">
         <v>150</v>
       </c>
@@ -8987,6 +9740,9 @@
       <c r="C254" t="s">
         <v>1412</v>
       </c>
+      <c r="D254" s="4">
+        <v>50</v>
+      </c>
       <c r="E254" t="s">
         <v>150</v>
       </c>
@@ -9004,6 +9760,9 @@
       <c r="C255" t="s">
         <v>1412</v>
       </c>
+      <c r="D255" s="4">
+        <v>50</v>
+      </c>
       <c r="E255" t="s">
         <v>61</v>
       </c>
@@ -9021,6 +9780,9 @@
       <c r="C256" t="s">
         <v>1412</v>
       </c>
+      <c r="D256" s="4">
+        <v>50</v>
+      </c>
       <c r="E256" t="s">
         <v>324</v>
       </c>
@@ -9038,6 +9800,9 @@
       <c r="C257" t="s">
         <v>1412</v>
       </c>
+      <c r="D257" s="4">
+        <v>50</v>
+      </c>
       <c r="E257" t="s">
         <v>169</v>
       </c>
@@ -9055,6 +9820,9 @@
       <c r="C258" t="s">
         <v>1412</v>
       </c>
+      <c r="D258" s="4">
+        <v>50</v>
+      </c>
       <c r="E258" t="s">
         <v>18</v>
       </c>
@@ -9072,6 +9840,9 @@
       <c r="C259" t="s">
         <v>1412</v>
       </c>
+      <c r="D259" s="4">
+        <v>50</v>
+      </c>
       <c r="E259" t="s">
         <v>18</v>
       </c>
@@ -9089,6 +9860,9 @@
       <c r="C260" t="s">
         <v>1412</v>
       </c>
+      <c r="D260" s="4">
+        <v>50</v>
+      </c>
       <c r="E260" t="s">
         <v>18</v>
       </c>
@@ -9106,6 +9880,9 @@
       <c r="C261" t="s">
         <v>1412</v>
       </c>
+      <c r="D261" s="4">
+        <v>50</v>
+      </c>
       <c r="E261" t="s">
         <v>61</v>
       </c>
@@ -9123,6 +9900,9 @@
       <c r="C262" t="s">
         <v>1412</v>
       </c>
+      <c r="D262" s="4">
+        <v>50</v>
+      </c>
       <c r="E262" t="s">
         <v>61</v>
       </c>
@@ -9140,6 +9920,9 @@
       <c r="C263" t="s">
         <v>1412</v>
       </c>
+      <c r="D263" s="4">
+        <v>50</v>
+      </c>
       <c r="E263" t="s">
         <v>46</v>
       </c>
@@ -9157,6 +9940,9 @@
       <c r="C264" t="s">
         <v>1412</v>
       </c>
+      <c r="D264" s="4">
+        <v>50</v>
+      </c>
       <c r="E264" t="s">
         <v>324</v>
       </c>
@@ -9174,6 +9960,9 @@
       <c r="C265" t="s">
         <v>1412</v>
       </c>
+      <c r="D265" s="4">
+        <v>50</v>
+      </c>
       <c r="E265" t="s">
         <v>61</v>
       </c>
@@ -9191,6 +9980,9 @@
       <c r="C266" t="s">
         <v>1412</v>
       </c>
+      <c r="D266" s="4">
+        <v>50</v>
+      </c>
       <c r="E266" t="s">
         <v>324</v>
       </c>
@@ -9208,6 +10000,9 @@
       <c r="C267" t="s">
         <v>1412</v>
       </c>
+      <c r="D267" s="4">
+        <v>50</v>
+      </c>
       <c r="E267" t="s">
         <v>8</v>
       </c>
@@ -9225,6 +10020,9 @@
       <c r="C268" t="s">
         <v>1412</v>
       </c>
+      <c r="D268" s="4">
+        <v>50</v>
+      </c>
       <c r="E268" t="s">
         <v>8</v>
       </c>
@@ -9242,6 +10040,9 @@
       <c r="C269" t="s">
         <v>1412</v>
       </c>
+      <c r="D269" s="4">
+        <v>50</v>
+      </c>
       <c r="E269" t="s">
         <v>8</v>
       </c>
@@ -9259,6 +10060,9 @@
       <c r="C270" t="s">
         <v>1412</v>
       </c>
+      <c r="D270" s="4">
+        <v>50</v>
+      </c>
       <c r="E270" t="s">
         <v>61</v>
       </c>
@@ -9276,6 +10080,9 @@
       <c r="C271" t="s">
         <v>1412</v>
       </c>
+      <c r="D271" s="4">
+        <v>50</v>
+      </c>
       <c r="E271" t="s">
         <v>46</v>
       </c>
@@ -9293,6 +10100,9 @@
       <c r="C272" t="s">
         <v>1412</v>
       </c>
+      <c r="D272" s="4">
+        <v>50</v>
+      </c>
       <c r="E272" t="s">
         <v>8</v>
       </c>
@@ -9310,6 +10120,9 @@
       <c r="C273" t="s">
         <v>1412</v>
       </c>
+      <c r="D273" s="4">
+        <v>50</v>
+      </c>
       <c r="E273" t="s">
         <v>5</v>
       </c>
@@ -9327,6 +10140,9 @@
       <c r="C274" t="s">
         <v>1412</v>
       </c>
+      <c r="D274" s="4">
+        <v>50</v>
+      </c>
       <c r="E274" t="s">
         <v>5</v>
       </c>
@@ -9344,6 +10160,9 @@
       <c r="C275" t="s">
         <v>1412</v>
       </c>
+      <c r="D275" s="4">
+        <v>50</v>
+      </c>
       <c r="E275" t="s">
         <v>108</v>
       </c>
@@ -9361,6 +10180,9 @@
       <c r="C276" t="s">
         <v>1412</v>
       </c>
+      <c r="D276" s="4">
+        <v>50</v>
+      </c>
       <c r="E276" t="s">
         <v>491</v>
       </c>
@@ -9378,6 +10200,9 @@
       <c r="C277" t="s">
         <v>1412</v>
       </c>
+      <c r="D277" s="4">
+        <v>50</v>
+      </c>
       <c r="E277" t="s">
         <v>61</v>
       </c>
@@ -9395,6 +10220,9 @@
       <c r="C278" t="s">
         <v>1412</v>
       </c>
+      <c r="D278" s="4">
+        <v>50</v>
+      </c>
       <c r="E278" t="s">
         <v>108</v>
       </c>
@@ -9412,6 +10240,9 @@
       <c r="C279" t="s">
         <v>1412</v>
       </c>
+      <c r="D279" s="4">
+        <v>50</v>
+      </c>
       <c r="E279" t="s">
         <v>150</v>
       </c>
@@ -9429,6 +10260,9 @@
       <c r="C280" t="s">
         <v>1412</v>
       </c>
+      <c r="D280" s="4">
+        <v>50</v>
+      </c>
       <c r="E280" t="s">
         <v>116</v>
       </c>
@@ -9446,6 +10280,9 @@
       <c r="C281" t="s">
         <v>1412</v>
       </c>
+      <c r="D281" s="4">
+        <v>50</v>
+      </c>
       <c r="E281" t="s">
         <v>166</v>
       </c>
@@ -9463,6 +10300,9 @@
       <c r="C282" t="s">
         <v>1412</v>
       </c>
+      <c r="D282" s="4">
+        <v>50</v>
+      </c>
       <c r="E282" t="s">
         <v>166</v>
       </c>
@@ -9480,6 +10320,9 @@
       <c r="C283" t="s">
         <v>1412</v>
       </c>
+      <c r="D283" s="4">
+        <v>50</v>
+      </c>
       <c r="E283" t="s">
         <v>46</v>
       </c>
@@ -9497,6 +10340,9 @@
       <c r="C284" t="s">
         <v>1412</v>
       </c>
+      <c r="D284" s="4">
+        <v>50</v>
+      </c>
       <c r="E284" t="s">
         <v>46</v>
       </c>
@@ -9514,6 +10360,9 @@
       <c r="C285" t="s">
         <v>1412</v>
       </c>
+      <c r="D285" s="4">
+        <v>50</v>
+      </c>
       <c r="E285" t="s">
         <v>5</v>
       </c>
@@ -9531,6 +10380,9 @@
       <c r="C286" t="s">
         <v>1412</v>
       </c>
+      <c r="D286" s="4">
+        <v>50</v>
+      </c>
       <c r="E286" t="s">
         <v>116</v>
       </c>
@@ -9548,6 +10400,9 @@
       <c r="C287" t="s">
         <v>1412</v>
       </c>
+      <c r="D287" s="4">
+        <v>50</v>
+      </c>
       <c r="E287" t="s">
         <v>46</v>
       </c>
@@ -9565,6 +10420,9 @@
       <c r="C288" t="s">
         <v>1412</v>
       </c>
+      <c r="D288" s="4">
+        <v>50</v>
+      </c>
       <c r="E288" t="s">
         <v>46</v>
       </c>
@@ -9582,6 +10440,9 @@
       <c r="C289" t="s">
         <v>1412</v>
       </c>
+      <c r="D289" s="4">
+        <v>50</v>
+      </c>
       <c r="E289" t="s">
         <v>38</v>
       </c>
@@ -9599,6 +10460,9 @@
       <c r="C290" t="s">
         <v>1412</v>
       </c>
+      <c r="D290" s="4">
+        <v>50</v>
+      </c>
       <c r="E290" t="s">
         <v>152</v>
       </c>
@@ -9616,6 +10480,9 @@
       <c r="C291" t="s">
         <v>1412</v>
       </c>
+      <c r="D291" s="4">
+        <v>50</v>
+      </c>
       <c r="E291" t="s">
         <v>46</v>
       </c>
@@ -9633,6 +10500,9 @@
       <c r="C292" t="s">
         <v>1412</v>
       </c>
+      <c r="D292" s="4">
+        <v>50</v>
+      </c>
       <c r="E292" t="s">
         <v>46</v>
       </c>
@@ -9650,6 +10520,9 @@
       <c r="C293" t="s">
         <v>1412</v>
       </c>
+      <c r="D293" s="4">
+        <v>50</v>
+      </c>
       <c r="E293" t="s">
         <v>150</v>
       </c>
@@ -9667,6 +10540,9 @@
       <c r="C294" t="s">
         <v>1412</v>
       </c>
+      <c r="D294" s="4">
+        <v>50</v>
+      </c>
       <c r="E294" t="s">
         <v>46</v>
       </c>
@@ -9684,6 +10560,9 @@
       <c r="C295" t="s">
         <v>1412</v>
       </c>
+      <c r="D295" s="4">
+        <v>50</v>
+      </c>
       <c r="E295" t="s">
         <v>8</v>
       </c>
@@ -9701,6 +10580,9 @@
       <c r="C296" t="s">
         <v>1412</v>
       </c>
+      <c r="D296" s="4">
+        <v>50</v>
+      </c>
       <c r="E296" t="s">
         <v>166</v>
       </c>
@@ -9718,6 +10600,9 @@
       <c r="C297" t="s">
         <v>1412</v>
       </c>
+      <c r="D297" s="4">
+        <v>50</v>
+      </c>
       <c r="E297" t="s">
         <v>302</v>
       </c>
@@ -9735,6 +10620,9 @@
       <c r="C298" t="s">
         <v>1412</v>
       </c>
+      <c r="D298" s="4">
+        <v>50</v>
+      </c>
       <c r="E298" t="s">
         <v>305</v>
       </c>
@@ -9752,6 +10640,9 @@
       <c r="C299" t="s">
         <v>1412</v>
       </c>
+      <c r="D299" s="4">
+        <v>50</v>
+      </c>
       <c r="E299" t="s">
         <v>108</v>
       </c>
@@ -9769,6 +10660,9 @@
       <c r="C300" t="s">
         <v>1412</v>
       </c>
+      <c r="D300" s="4">
+        <v>50</v>
+      </c>
       <c r="E300" t="s">
         <v>302</v>
       </c>
@@ -9786,6 +10680,9 @@
       <c r="C301" t="s">
         <v>1412</v>
       </c>
+      <c r="D301" s="4">
+        <v>50</v>
+      </c>
       <c r="E301" t="s">
         <v>108</v>
       </c>
@@ -9803,6 +10700,9 @@
       <c r="C302" t="s">
         <v>1412</v>
       </c>
+      <c r="D302" s="4">
+        <v>50</v>
+      </c>
       <c r="E302" t="s">
         <v>61</v>
       </c>
@@ -9820,6 +10720,9 @@
       <c r="C303" t="s">
         <v>1412</v>
       </c>
+      <c r="D303" s="4">
+        <v>50</v>
+      </c>
       <c r="E303" t="s">
         <v>302</v>
       </c>
@@ -9837,6 +10740,9 @@
       <c r="C304" t="s">
         <v>1412</v>
       </c>
+      <c r="D304" s="4">
+        <v>50</v>
+      </c>
       <c r="E304" t="s">
         <v>46</v>
       </c>
@@ -9854,6 +10760,9 @@
       <c r="C305" t="s">
         <v>1412</v>
       </c>
+      <c r="D305" s="4">
+        <v>50</v>
+      </c>
       <c r="E305" t="s">
         <v>544</v>
       </c>
@@ -9871,6 +10780,9 @@
       <c r="C306" t="s">
         <v>1412</v>
       </c>
+      <c r="D306" s="4">
+        <v>50</v>
+      </c>
       <c r="E306" t="s">
         <v>302</v>
       </c>
@@ -9888,6 +10800,9 @@
       <c r="C307" t="s">
         <v>1412</v>
       </c>
+      <c r="D307" s="4">
+        <v>50</v>
+      </c>
       <c r="E307" t="s">
         <v>166</v>
       </c>
@@ -9905,6 +10820,9 @@
       <c r="C308" t="s">
         <v>1412</v>
       </c>
+      <c r="D308" s="4">
+        <v>50</v>
+      </c>
       <c r="E308" t="s">
         <v>61</v>
       </c>
@@ -9922,6 +10840,9 @@
       <c r="C309" t="s">
         <v>1412</v>
       </c>
+      <c r="D309" s="4">
+        <v>50</v>
+      </c>
       <c r="E309" t="s">
         <v>46</v>
       </c>
@@ -9939,6 +10860,9 @@
       <c r="C310" t="s">
         <v>1412</v>
       </c>
+      <c r="D310" s="4">
+        <v>50</v>
+      </c>
       <c r="E310" t="s">
         <v>150</v>
       </c>
@@ -9956,6 +10880,9 @@
       <c r="C311" t="s">
         <v>1412</v>
       </c>
+      <c r="D311" s="4">
+        <v>50</v>
+      </c>
       <c r="E311" t="s">
         <v>8</v>
       </c>
@@ -9973,6 +10900,9 @@
       <c r="C312" t="s">
         <v>1412</v>
       </c>
+      <c r="D312" s="4">
+        <v>50</v>
+      </c>
       <c r="E312" t="s">
         <v>197</v>
       </c>
@@ -9990,6 +10920,9 @@
       <c r="C313" t="s">
         <v>1412</v>
       </c>
+      <c r="D313" s="4">
+        <v>50</v>
+      </c>
       <c r="E313" t="s">
         <v>561</v>
       </c>
@@ -10007,6 +10940,9 @@
       <c r="C314" t="s">
         <v>1412</v>
       </c>
+      <c r="D314" s="4">
+        <v>50</v>
+      </c>
       <c r="E314" t="s">
         <v>46</v>
       </c>
@@ -10024,6 +10960,9 @@
       <c r="C315" t="s">
         <v>1412</v>
       </c>
+      <c r="D315" s="4">
+        <v>50</v>
+      </c>
       <c r="E315" t="s">
         <v>46</v>
       </c>
@@ -10041,6 +10980,9 @@
       <c r="C316" t="s">
         <v>1412</v>
       </c>
+      <c r="D316" s="4">
+        <v>50</v>
+      </c>
       <c r="E316" t="s">
         <v>8</v>
       </c>
@@ -10058,6 +11000,9 @@
       <c r="C317" t="s">
         <v>1412</v>
       </c>
+      <c r="D317" s="4">
+        <v>50</v>
+      </c>
       <c r="E317" t="s">
         <v>5</v>
       </c>
@@ -10075,6 +11020,9 @@
       <c r="C318" t="s">
         <v>1412</v>
       </c>
+      <c r="D318" s="4">
+        <v>50</v>
+      </c>
       <c r="E318" t="s">
         <v>302</v>
       </c>
@@ -10092,6 +11040,9 @@
       <c r="C319" t="s">
         <v>1412</v>
       </c>
+      <c r="D319" s="4">
+        <v>50</v>
+      </c>
       <c r="E319" t="s">
         <v>302</v>
       </c>
@@ -10109,6 +11060,9 @@
       <c r="C320" t="s">
         <v>1412</v>
       </c>
+      <c r="D320" s="4">
+        <v>50</v>
+      </c>
       <c r="E320" t="s">
         <v>46</v>
       </c>
@@ -10126,6 +11080,9 @@
       <c r="C321" t="s">
         <v>1412</v>
       </c>
+      <c r="D321" s="4">
+        <v>50</v>
+      </c>
       <c r="E321" t="s">
         <v>302</v>
       </c>
@@ -10143,6 +11100,9 @@
       <c r="C322" t="s">
         <v>1412</v>
       </c>
+      <c r="D322" s="4">
+        <v>50</v>
+      </c>
       <c r="E322" t="s">
         <v>202</v>
       </c>
@@ -10160,6 +11120,9 @@
       <c r="C323" t="s">
         <v>1412</v>
       </c>
+      <c r="D323" s="4">
+        <v>50</v>
+      </c>
       <c r="E323" t="s">
         <v>15</v>
       </c>
@@ -10177,6 +11140,9 @@
       <c r="C324" t="s">
         <v>1412</v>
       </c>
+      <c r="D324" s="4">
+        <v>50</v>
+      </c>
       <c r="E324" t="s">
         <v>327</v>
       </c>
@@ -10194,6 +11160,9 @@
       <c r="C325" t="s">
         <v>1412</v>
       </c>
+      <c r="D325" s="4">
+        <v>50</v>
+      </c>
       <c r="E325" t="s">
         <v>302</v>
       </c>
@@ -10211,6 +11180,9 @@
       <c r="C326" t="s">
         <v>1412</v>
       </c>
+      <c r="D326" s="4">
+        <v>50</v>
+      </c>
       <c r="E326" t="s">
         <v>302</v>
       </c>
@@ -10228,6 +11200,9 @@
       <c r="C327" t="s">
         <v>1412</v>
       </c>
+      <c r="D327" s="4">
+        <v>50</v>
+      </c>
       <c r="E327" t="s">
         <v>108</v>
       </c>
@@ -10245,6 +11220,9 @@
       <c r="C328" t="s">
         <v>1412</v>
       </c>
+      <c r="D328" s="4">
+        <v>50</v>
+      </c>
       <c r="E328" t="s">
         <v>327</v>
       </c>
@@ -10262,6 +11240,9 @@
       <c r="C329" t="s">
         <v>1412</v>
       </c>
+      <c r="D329" s="4">
+        <v>50</v>
+      </c>
       <c r="E329" t="s">
         <v>5</v>
       </c>
@@ -10279,6 +11260,9 @@
       <c r="C330" t="s">
         <v>1412</v>
       </c>
+      <c r="D330" s="4">
+        <v>50</v>
+      </c>
       <c r="E330" t="s">
         <v>5</v>
       </c>
@@ -10296,6 +11280,9 @@
       <c r="C331" t="s">
         <v>1412</v>
       </c>
+      <c r="D331" s="4">
+        <v>50</v>
+      </c>
       <c r="E331" t="s">
         <v>8</v>
       </c>
@@ -10313,6 +11300,9 @@
       <c r="C332" t="s">
         <v>1412</v>
       </c>
+      <c r="D332" s="4">
+        <v>50</v>
+      </c>
       <c r="E332" t="s">
         <v>61</v>
       </c>
@@ -10330,6 +11320,9 @@
       <c r="C333" t="s">
         <v>1412</v>
       </c>
+      <c r="D333" s="4">
+        <v>50</v>
+      </c>
       <c r="E333" t="s">
         <v>327</v>
       </c>
@@ -10347,6 +11340,9 @@
       <c r="C334" t="s">
         <v>1412</v>
       </c>
+      <c r="D334" s="4">
+        <v>50</v>
+      </c>
       <c r="E334" t="s">
         <v>327</v>
       </c>
@@ -10364,6 +11360,9 @@
       <c r="C335" t="s">
         <v>1412</v>
       </c>
+      <c r="D335" s="4">
+        <v>50</v>
+      </c>
       <c r="E335" t="s">
         <v>327</v>
       </c>
@@ -10381,6 +11380,9 @@
       <c r="C336" t="s">
         <v>1412</v>
       </c>
+      <c r="D336" s="4">
+        <v>50</v>
+      </c>
       <c r="E336" t="s">
         <v>607</v>
       </c>
@@ -10398,6 +11400,9 @@
       <c r="C337" t="s">
         <v>1412</v>
       </c>
+      <c r="D337" s="4">
+        <v>50</v>
+      </c>
       <c r="E337" t="s">
         <v>607</v>
       </c>
@@ -10415,6 +11420,9 @@
       <c r="C338" t="s">
         <v>1412</v>
       </c>
+      <c r="D338" s="4">
+        <v>50</v>
+      </c>
       <c r="E338" t="s">
         <v>108</v>
       </c>
@@ -10432,6 +11440,9 @@
       <c r="C339" t="s">
         <v>1412</v>
       </c>
+      <c r="D339" s="4">
+        <v>50</v>
+      </c>
       <c r="E339" t="s">
         <v>46</v>
       </c>
@@ -10449,6 +11460,9 @@
       <c r="C340" t="s">
         <v>1412</v>
       </c>
+      <c r="D340" s="4">
+        <v>50</v>
+      </c>
       <c r="E340" t="s">
         <v>169</v>
       </c>
@@ -10466,6 +11480,9 @@
       <c r="C341" t="s">
         <v>1412</v>
       </c>
+      <c r="D341" s="4">
+        <v>50</v>
+      </c>
       <c r="E341" t="s">
         <v>108</v>
       </c>
@@ -10483,6 +11500,9 @@
       <c r="C342" t="s">
         <v>1412</v>
       </c>
+      <c r="D342" s="4">
+        <v>50</v>
+      </c>
       <c r="E342" t="s">
         <v>169</v>
       </c>
@@ -10500,6 +11520,9 @@
       <c r="C343" t="s">
         <v>1412</v>
       </c>
+      <c r="D343" s="4">
+        <v>50</v>
+      </c>
       <c r="E343" t="s">
         <v>18</v>
       </c>
@@ -10517,6 +11540,9 @@
       <c r="C344" t="s">
         <v>1412</v>
       </c>
+      <c r="D344" s="4">
+        <v>50</v>
+      </c>
       <c r="E344" t="s">
         <v>61</v>
       </c>
@@ -10534,6 +11560,9 @@
       <c r="C345" t="s">
         <v>1412</v>
       </c>
+      <c r="D345" s="4">
+        <v>50</v>
+      </c>
       <c r="E345" t="s">
         <v>491</v>
       </c>
@@ -10551,6 +11580,9 @@
       <c r="C346" t="s">
         <v>1412</v>
       </c>
+      <c r="D346" s="4">
+        <v>50</v>
+      </c>
       <c r="E346" t="s">
         <v>46</v>
       </c>
@@ -10568,6 +11600,9 @@
       <c r="C347" t="s">
         <v>1412</v>
       </c>
+      <c r="D347" s="4">
+        <v>50</v>
+      </c>
       <c r="E347" t="s">
         <v>46</v>
       </c>
@@ -10585,6 +11620,9 @@
       <c r="C348" t="s">
         <v>1412</v>
       </c>
+      <c r="D348" s="4">
+        <v>50</v>
+      </c>
       <c r="E348" t="s">
         <v>46</v>
       </c>
@@ -10602,6 +11640,9 @@
       <c r="C349" t="s">
         <v>1412</v>
       </c>
+      <c r="D349" s="4">
+        <v>50</v>
+      </c>
       <c r="E349" t="s">
         <v>61</v>
       </c>
@@ -10619,6 +11660,9 @@
       <c r="C350" t="s">
         <v>1412</v>
       </c>
+      <c r="D350" s="4">
+        <v>50</v>
+      </c>
       <c r="E350" t="s">
         <v>150</v>
       </c>
@@ -10636,6 +11680,9 @@
       <c r="C351" t="s">
         <v>1412</v>
       </c>
+      <c r="D351" s="4">
+        <v>50</v>
+      </c>
       <c r="E351" t="s">
         <v>61</v>
       </c>
@@ -10653,6 +11700,9 @@
       <c r="C352" t="s">
         <v>1412</v>
       </c>
+      <c r="D352" s="4">
+        <v>50</v>
+      </c>
       <c r="E352" t="s">
         <v>491</v>
       </c>
@@ -10670,6 +11720,9 @@
       <c r="C353" t="s">
         <v>1412</v>
       </c>
+      <c r="D353" s="4">
+        <v>50</v>
+      </c>
       <c r="E353" t="s">
         <v>108</v>
       </c>
@@ -10687,6 +11740,9 @@
       <c r="C354" t="s">
         <v>1412</v>
       </c>
+      <c r="D354" s="4">
+        <v>50</v>
+      </c>
       <c r="E354" t="s">
         <v>302</v>
       </c>
@@ -10704,6 +11760,9 @@
       <c r="C355" t="s">
         <v>1412</v>
       </c>
+      <c r="D355" s="4">
+        <v>50</v>
+      </c>
       <c r="E355" t="s">
         <v>108</v>
       </c>
@@ -10721,6 +11780,9 @@
       <c r="C356" t="s">
         <v>1412</v>
       </c>
+      <c r="D356" s="4">
+        <v>50</v>
+      </c>
       <c r="E356" t="s">
         <v>327</v>
       </c>
@@ -10738,6 +11800,9 @@
       <c r="C357" t="s">
         <v>1412</v>
       </c>
+      <c r="D357" s="4">
+        <v>50</v>
+      </c>
       <c r="E357" t="s">
         <v>61</v>
       </c>
@@ -10755,6 +11820,9 @@
       <c r="C358" t="s">
         <v>1412</v>
       </c>
+      <c r="D358" s="4">
+        <v>50</v>
+      </c>
       <c r="E358" t="s">
         <v>152</v>
       </c>
@@ -10772,6 +11840,9 @@
       <c r="C359" t="s">
         <v>1412</v>
       </c>
+      <c r="D359" s="4">
+        <v>50</v>
+      </c>
       <c r="E359" t="s">
         <v>327</v>
       </c>
@@ -10789,6 +11860,9 @@
       <c r="C360" t="s">
         <v>1412</v>
       </c>
+      <c r="D360" s="4">
+        <v>50</v>
+      </c>
       <c r="E360" t="s">
         <v>61</v>
       </c>
@@ -10806,6 +11880,9 @@
       <c r="C361" t="s">
         <v>1412</v>
       </c>
+      <c r="D361" s="4">
+        <v>50</v>
+      </c>
       <c r="E361" t="s">
         <v>61</v>
       </c>
@@ -10823,6 +11900,9 @@
       <c r="C362" t="s">
         <v>1412</v>
       </c>
+      <c r="D362" s="4">
+        <v>50</v>
+      </c>
       <c r="E362" t="s">
         <v>5</v>
       </c>
@@ -10840,6 +11920,9 @@
       <c r="C363" t="s">
         <v>1412</v>
       </c>
+      <c r="D363" s="4">
+        <v>50</v>
+      </c>
       <c r="E363" t="s">
         <v>61</v>
       </c>
@@ -10857,6 +11940,9 @@
       <c r="C364" t="s">
         <v>1412</v>
       </c>
+      <c r="D364" s="4">
+        <v>50</v>
+      </c>
       <c r="E364" t="s">
         <v>61</v>
       </c>
@@ -10874,6 +11960,9 @@
       <c r="C365" t="s">
         <v>1412</v>
       </c>
+      <c r="D365" s="4">
+        <v>50</v>
+      </c>
       <c r="E365" t="s">
         <v>18</v>
       </c>
@@ -10891,6 +11980,9 @@
       <c r="C366" t="s">
         <v>1412</v>
       </c>
+      <c r="D366" s="4">
+        <v>50</v>
+      </c>
       <c r="E366" t="s">
         <v>202</v>
       </c>
@@ -10908,6 +12000,9 @@
       <c r="C367" t="s">
         <v>1412</v>
       </c>
+      <c r="D367" s="4">
+        <v>50</v>
+      </c>
       <c r="E367" t="s">
         <v>116</v>
       </c>
@@ -10925,6 +12020,9 @@
       <c r="C368" t="s">
         <v>1412</v>
       </c>
+      <c r="D368" s="4">
+        <v>50</v>
+      </c>
       <c r="E368" t="s">
         <v>108</v>
       </c>
@@ -10942,6 +12040,9 @@
       <c r="C369" t="s">
         <v>1412</v>
       </c>
+      <c r="D369" s="4">
+        <v>50</v>
+      </c>
       <c r="E369" t="s">
         <v>61</v>
       </c>
@@ -10959,6 +12060,9 @@
       <c r="C370" t="s">
         <v>1412</v>
       </c>
+      <c r="D370" s="4">
+        <v>50</v>
+      </c>
       <c r="E370" t="s">
         <v>202</v>
       </c>
@@ -10976,6 +12080,9 @@
       <c r="C371" t="s">
         <v>1412</v>
       </c>
+      <c r="D371" s="4">
+        <v>50</v>
+      </c>
       <c r="E371" t="s">
         <v>327</v>
       </c>
@@ -10993,6 +12100,9 @@
       <c r="C372" t="s">
         <v>1412</v>
       </c>
+      <c r="D372" s="4">
+        <v>50</v>
+      </c>
       <c r="E372" t="s">
         <v>61</v>
       </c>
@@ -11010,6 +12120,9 @@
       <c r="C373" t="s">
         <v>1412</v>
       </c>
+      <c r="D373" s="4">
+        <v>50</v>
+      </c>
       <c r="E373" t="s">
         <v>327</v>
       </c>
@@ -11027,6 +12140,9 @@
       <c r="C374" t="s">
         <v>1412</v>
       </c>
+      <c r="D374" s="4">
+        <v>50</v>
+      </c>
       <c r="E374" t="s">
         <v>327</v>
       </c>
@@ -11044,6 +12160,9 @@
       <c r="C375" t="s">
         <v>1412</v>
       </c>
+      <c r="D375" s="4">
+        <v>50</v>
+      </c>
       <c r="E375" t="s">
         <v>61</v>
       </c>
@@ -11061,6 +12180,9 @@
       <c r="C376" t="s">
         <v>1412</v>
       </c>
+      <c r="D376" s="4">
+        <v>50</v>
+      </c>
       <c r="E376" t="s">
         <v>61</v>
       </c>
@@ -11078,6 +12200,9 @@
       <c r="C377" t="s">
         <v>1412</v>
       </c>
+      <c r="D377" s="4">
+        <v>50</v>
+      </c>
       <c r="E377" t="s">
         <v>327</v>
       </c>
@@ -11095,6 +12220,9 @@
       <c r="C378" t="s">
         <v>1412</v>
       </c>
+      <c r="D378" s="4">
+        <v>50</v>
+      </c>
       <c r="E378" t="s">
         <v>46</v>
       </c>
@@ -11112,6 +12240,9 @@
       <c r="C379" t="s">
         <v>1412</v>
       </c>
+      <c r="D379" s="4">
+        <v>50</v>
+      </c>
       <c r="E379" t="s">
         <v>327</v>
       </c>
@@ -11129,6 +12260,9 @@
       <c r="C380" t="s">
         <v>1412</v>
       </c>
+      <c r="D380" s="4">
+        <v>50</v>
+      </c>
       <c r="E380" t="s">
         <v>327</v>
       </c>
@@ -11146,6 +12280,9 @@
       <c r="C381" t="s">
         <v>1412</v>
       </c>
+      <c r="D381" s="4">
+        <v>50</v>
+      </c>
       <c r="E381" t="s">
         <v>61</v>
       </c>
@@ -11163,6 +12300,9 @@
       <c r="C382" t="s">
         <v>1412</v>
       </c>
+      <c r="D382" s="4">
+        <v>50</v>
+      </c>
       <c r="E382" t="s">
         <v>46</v>
       </c>
@@ -11180,6 +12320,9 @@
       <c r="C383" t="s">
         <v>1412</v>
       </c>
+      <c r="D383" s="4">
+        <v>50</v>
+      </c>
       <c r="E383" t="s">
         <v>324</v>
       </c>
@@ -11197,6 +12340,9 @@
       <c r="C384" t="s">
         <v>1412</v>
       </c>
+      <c r="D384" s="4">
+        <v>50</v>
+      </c>
       <c r="E384" t="s">
         <v>61</v>
       </c>
@@ -11214,6 +12360,9 @@
       <c r="C385" t="s">
         <v>1412</v>
       </c>
+      <c r="D385" s="4">
+        <v>50</v>
+      </c>
       <c r="E385" t="s">
         <v>327</v>
       </c>
@@ -11231,6 +12380,9 @@
       <c r="C386" t="s">
         <v>1412</v>
       </c>
+      <c r="D386" s="4">
+        <v>50</v>
+      </c>
       <c r="E386" t="s">
         <v>327</v>
       </c>
@@ -11248,6 +12400,9 @@
       <c r="C387" t="s">
         <v>1412</v>
       </c>
+      <c r="D387" s="4">
+        <v>50</v>
+      </c>
       <c r="E387" t="s">
         <v>202</v>
       </c>
@@ -11265,6 +12420,9 @@
       <c r="C388" t="s">
         <v>1412</v>
       </c>
+      <c r="D388" s="4">
+        <v>50</v>
+      </c>
       <c r="E388" t="s">
         <v>197</v>
       </c>
@@ -11282,6 +12440,9 @@
       <c r="C389" t="s">
         <v>1412</v>
       </c>
+      <c r="D389" s="4">
+        <v>50</v>
+      </c>
       <c r="E389" t="s">
         <v>202</v>
       </c>
@@ -11299,6 +12460,9 @@
       <c r="C390" t="s">
         <v>1412</v>
       </c>
+      <c r="D390" s="4">
+        <v>50</v>
+      </c>
       <c r="E390" t="s">
         <v>333</v>
       </c>
@@ -11316,6 +12480,9 @@
       <c r="C391" t="s">
         <v>1412</v>
       </c>
+      <c r="D391" s="4">
+        <v>50</v>
+      </c>
       <c r="E391" t="s">
         <v>5</v>
       </c>
@@ -11333,6 +12500,9 @@
       <c r="C392" t="s">
         <v>1412</v>
       </c>
+      <c r="D392" s="4">
+        <v>50</v>
+      </c>
       <c r="E392" t="s">
         <v>407</v>
       </c>
@@ -11350,6 +12520,9 @@
       <c r="C393" t="s">
         <v>1412</v>
       </c>
+      <c r="D393" s="4">
+        <v>50</v>
+      </c>
       <c r="E393" t="s">
         <v>108</v>
       </c>
@@ -11367,6 +12540,9 @@
       <c r="C394" t="s">
         <v>1412</v>
       </c>
+      <c r="D394" s="4">
+        <v>50</v>
+      </c>
       <c r="E394" t="s">
         <v>46</v>
       </c>
@@ -11384,6 +12560,9 @@
       <c r="C395" t="s">
         <v>1412</v>
       </c>
+      <c r="D395" s="4">
+        <v>50</v>
+      </c>
       <c r="E395" t="s">
         <v>324</v>
       </c>
@@ -11401,6 +12580,9 @@
       <c r="C396" t="s">
         <v>1412</v>
       </c>
+      <c r="D396" s="4">
+        <v>50</v>
+      </c>
       <c r="E396" t="s">
         <v>61</v>
       </c>
@@ -11418,6 +12600,9 @@
       <c r="C397" t="s">
         <v>1412</v>
       </c>
+      <c r="D397" s="4">
+        <v>50</v>
+      </c>
       <c r="E397" t="s">
         <v>491</v>
       </c>
@@ -11435,6 +12620,9 @@
       <c r="C398" t="s">
         <v>1412</v>
       </c>
+      <c r="D398" s="4">
+        <v>50</v>
+      </c>
       <c r="E398" t="s">
         <v>302</v>
       </c>
@@ -11452,6 +12640,9 @@
       <c r="C399" t="s">
         <v>1412</v>
       </c>
+      <c r="D399" s="4">
+        <v>50</v>
+      </c>
       <c r="E399" t="s">
         <v>302</v>
       </c>
@@ -11469,6 +12660,9 @@
       <c r="C400" t="s">
         <v>1412</v>
       </c>
+      <c r="D400" s="4">
+        <v>50</v>
+      </c>
       <c r="E400" t="s">
         <v>491</v>
       </c>
@@ -11486,6 +12680,9 @@
       <c r="C401" t="s">
         <v>1412</v>
       </c>
+      <c r="D401" s="4">
+        <v>50</v>
+      </c>
       <c r="E401" t="s">
         <v>5</v>
       </c>
@@ -11503,6 +12700,9 @@
       <c r="C402" t="s">
         <v>1412</v>
       </c>
+      <c r="D402" s="4">
+        <v>50</v>
+      </c>
       <c r="E402" t="s">
         <v>197</v>
       </c>
@@ -11520,6 +12720,9 @@
       <c r="C403" t="s">
         <v>1412</v>
       </c>
+      <c r="D403" s="4">
+        <v>50</v>
+      </c>
       <c r="F403">
         <v>4.25</v>
       </c>
@@ -11534,6 +12737,9 @@
       <c r="C404" t="s">
         <v>1412</v>
       </c>
+      <c r="D404" s="4">
+        <v>50</v>
+      </c>
       <c r="E404" t="s">
         <v>61</v>
       </c>
@@ -11551,6 +12757,9 @@
       <c r="C405" t="s">
         <v>1412</v>
       </c>
+      <c r="D405" s="4">
+        <v>50</v>
+      </c>
       <c r="E405" t="s">
         <v>327</v>
       </c>
@@ -11568,6 +12777,9 @@
       <c r="C406" t="s">
         <v>1412</v>
       </c>
+      <c r="D406" s="4">
+        <v>50</v>
+      </c>
       <c r="E406" t="s">
         <v>327</v>
       </c>
@@ -11585,6 +12797,9 @@
       <c r="C407" t="s">
         <v>1412</v>
       </c>
+      <c r="D407" s="4">
+        <v>50</v>
+      </c>
       <c r="E407" t="s">
         <v>46</v>
       </c>
@@ -11602,6 +12817,9 @@
       <c r="C408" t="s">
         <v>1412</v>
       </c>
+      <c r="D408" s="4">
+        <v>50</v>
+      </c>
       <c r="E408" t="s">
         <v>327</v>
       </c>
@@ -11619,6 +12837,9 @@
       <c r="C409" t="s">
         <v>1412</v>
       </c>
+      <c r="D409" s="4">
+        <v>50</v>
+      </c>
       <c r="E409" t="s">
         <v>46</v>
       </c>
@@ -11636,6 +12857,9 @@
       <c r="C410" t="s">
         <v>1412</v>
       </c>
+      <c r="D410" s="4">
+        <v>50</v>
+      </c>
       <c r="E410" t="s">
         <v>46</v>
       </c>
@@ -11653,6 +12877,9 @@
       <c r="C411" t="s">
         <v>1412</v>
       </c>
+      <c r="D411" s="4">
+        <v>50</v>
+      </c>
       <c r="E411" t="s">
         <v>116</v>
       </c>
@@ -11670,6 +12897,9 @@
       <c r="C412" t="s">
         <v>1412</v>
       </c>
+      <c r="D412" s="4">
+        <v>50</v>
+      </c>
       <c r="E412" t="s">
         <v>5</v>
       </c>
@@ -11687,6 +12917,9 @@
       <c r="C413" t="s">
         <v>1412</v>
       </c>
+      <c r="D413" s="4">
+        <v>50</v>
+      </c>
       <c r="E413" t="s">
         <v>302</v>
       </c>
@@ -11704,6 +12937,9 @@
       <c r="C414" t="s">
         <v>1412</v>
       </c>
+      <c r="D414" s="4">
+        <v>50</v>
+      </c>
       <c r="E414" t="s">
         <v>46</v>
       </c>
@@ -11721,6 +12957,9 @@
       <c r="C415" t="s">
         <v>1412</v>
       </c>
+      <c r="D415" s="4">
+        <v>50</v>
+      </c>
       <c r="E415" t="s">
         <v>61</v>
       </c>
@@ -11738,6 +12977,9 @@
       <c r="C416" t="s">
         <v>1412</v>
       </c>
+      <c r="D416" s="4">
+        <v>50</v>
+      </c>
       <c r="E416" t="s">
         <v>61</v>
       </c>
@@ -11755,6 +12997,9 @@
       <c r="C417" t="s">
         <v>1412</v>
       </c>
+      <c r="D417" s="4">
+        <v>50</v>
+      </c>
       <c r="E417" t="s">
         <v>61</v>
       </c>
@@ -11772,6 +13017,9 @@
       <c r="C418" t="s">
         <v>1412</v>
       </c>
+      <c r="D418" s="4">
+        <v>50</v>
+      </c>
       <c r="E418" t="s">
         <v>46</v>
       </c>
@@ -11789,6 +13037,9 @@
       <c r="C419" t="s">
         <v>1412</v>
       </c>
+      <c r="D419" s="4">
+        <v>50</v>
+      </c>
       <c r="E419" t="s">
         <v>302</v>
       </c>
@@ -11806,6 +13057,9 @@
       <c r="C420" t="s">
         <v>1412</v>
       </c>
+      <c r="D420" s="4">
+        <v>50</v>
+      </c>
       <c r="E420" t="s">
         <v>46</v>
       </c>
@@ -11823,6 +13077,9 @@
       <c r="C421" t="s">
         <v>1412</v>
       </c>
+      <c r="D421" s="4">
+        <v>50</v>
+      </c>
       <c r="E421" t="s">
         <v>327</v>
       </c>
@@ -11840,6 +13097,9 @@
       <c r="C422" t="s">
         <v>1412</v>
       </c>
+      <c r="D422" s="4">
+        <v>50</v>
+      </c>
       <c r="E422" t="s">
         <v>324</v>
       </c>
@@ -11857,6 +13117,9 @@
       <c r="C423" t="s">
         <v>1412</v>
       </c>
+      <c r="D423" s="4">
+        <v>50</v>
+      </c>
       <c r="E423" t="s">
         <v>46</v>
       </c>
@@ -11874,6 +13137,9 @@
       <c r="C424" t="s">
         <v>1412</v>
       </c>
+      <c r="D424" s="4">
+        <v>50</v>
+      </c>
       <c r="E424" t="s">
         <v>15</v>
       </c>
@@ -11891,6 +13157,9 @@
       <c r="C425" t="s">
         <v>1412</v>
       </c>
+      <c r="D425" s="4">
+        <v>50</v>
+      </c>
       <c r="E425" t="s">
         <v>324</v>
       </c>
@@ -11908,6 +13177,9 @@
       <c r="C426" t="s">
         <v>1412</v>
       </c>
+      <c r="D426" s="4">
+        <v>50</v>
+      </c>
       <c r="E426" t="s">
         <v>324</v>
       </c>
@@ -11925,6 +13197,9 @@
       <c r="C427" t="s">
         <v>1412</v>
       </c>
+      <c r="D427" s="4">
+        <v>50</v>
+      </c>
       <c r="E427" t="s">
         <v>166</v>
       </c>
@@ -11942,6 +13217,9 @@
       <c r="C428" t="s">
         <v>1412</v>
       </c>
+      <c r="D428" s="4">
+        <v>50</v>
+      </c>
       <c r="E428" t="s">
         <v>302</v>
       </c>
@@ -11959,6 +13237,9 @@
       <c r="C429" t="s">
         <v>1412</v>
       </c>
+      <c r="D429" s="4">
+        <v>50</v>
+      </c>
       <c r="E429" t="s">
         <v>5</v>
       </c>
@@ -11976,6 +13257,9 @@
       <c r="C430" t="s">
         <v>1412</v>
       </c>
+      <c r="D430" s="4">
+        <v>50</v>
+      </c>
       <c r="E430" t="s">
         <v>5</v>
       </c>
@@ -11993,6 +13277,9 @@
       <c r="C431" t="s">
         <v>1412</v>
       </c>
+      <c r="D431" s="4">
+        <v>50</v>
+      </c>
       <c r="E431" t="s">
         <v>197</v>
       </c>
@@ -12010,6 +13297,9 @@
       <c r="C432" t="s">
         <v>1412</v>
       </c>
+      <c r="D432" s="4">
+        <v>50</v>
+      </c>
       <c r="E432" t="s">
         <v>197</v>
       </c>
@@ -12027,6 +13317,9 @@
       <c r="C433" t="s">
         <v>1412</v>
       </c>
+      <c r="D433" s="4">
+        <v>50</v>
+      </c>
       <c r="E433" t="s">
         <v>202</v>
       </c>
@@ -12044,6 +13337,9 @@
       <c r="C434" t="s">
         <v>1412</v>
       </c>
+      <c r="D434" s="4">
+        <v>50</v>
+      </c>
       <c r="E434" t="s">
         <v>202</v>
       </c>
@@ -12061,6 +13357,9 @@
       <c r="C435" t="s">
         <v>1412</v>
       </c>
+      <c r="D435" s="4">
+        <v>50</v>
+      </c>
       <c r="E435" t="s">
         <v>46</v>
       </c>
@@ -12078,6 +13377,9 @@
       <c r="C436" t="s">
         <v>1412</v>
       </c>
+      <c r="D436" s="4">
+        <v>50</v>
+      </c>
       <c r="E436" t="s">
         <v>108</v>
       </c>
@@ -12095,6 +13397,9 @@
       <c r="C437" t="s">
         <v>1412</v>
       </c>
+      <c r="D437" s="4">
+        <v>50</v>
+      </c>
       <c r="E437" t="s">
         <v>152</v>
       </c>
@@ -12112,6 +13417,9 @@
       <c r="C438" t="s">
         <v>1412</v>
       </c>
+      <c r="D438" s="4">
+        <v>50</v>
+      </c>
       <c r="E438" t="s">
         <v>108</v>
       </c>
@@ -12129,6 +13437,9 @@
       <c r="C439" t="s">
         <v>1412</v>
       </c>
+      <c r="D439" s="4">
+        <v>50</v>
+      </c>
       <c r="E439" t="s">
         <v>166</v>
       </c>
@@ -12146,6 +13457,9 @@
       <c r="C440" t="s">
         <v>1412</v>
       </c>
+      <c r="D440" s="4">
+        <v>50</v>
+      </c>
       <c r="E440" t="s">
         <v>8</v>
       </c>
@@ -12163,6 +13477,9 @@
       <c r="C441" t="s">
         <v>1412</v>
       </c>
+      <c r="D441" s="4">
+        <v>50</v>
+      </c>
       <c r="E441" t="s">
         <v>46</v>
       </c>
@@ -12180,6 +13497,9 @@
       <c r="C442" t="s">
         <v>1412</v>
       </c>
+      <c r="D442" s="4">
+        <v>50</v>
+      </c>
       <c r="E442" t="s">
         <v>324</v>
       </c>
@@ -12197,6 +13517,9 @@
       <c r="C443" t="s">
         <v>1412</v>
       </c>
+      <c r="D443" s="4">
+        <v>50</v>
+      </c>
       <c r="E443" t="s">
         <v>46</v>
       </c>
@@ -12214,6 +13537,9 @@
       <c r="C444" t="s">
         <v>1412</v>
       </c>
+      <c r="D444" s="4">
+        <v>50</v>
+      </c>
       <c r="E444" t="s">
         <v>46</v>
       </c>
@@ -12231,7 +13557,9 @@
       <c r="C445" t="s">
         <v>1412</v>
       </c>
-      <c r="D445" s="5"/>
+      <c r="D445" s="4">
+        <v>50</v>
+      </c>
       <c r="E445" t="s">
         <v>302</v>
       </c>
@@ -12249,6 +13577,9 @@
       <c r="C446" t="s">
         <v>1412</v>
       </c>
+      <c r="D446" s="4">
+        <v>50</v>
+      </c>
       <c r="E446" t="s">
         <v>46</v>
       </c>
@@ -12266,6 +13597,9 @@
       <c r="C447" t="s">
         <v>1412</v>
       </c>
+      <c r="D447" s="4">
+        <v>50</v>
+      </c>
       <c r="E447" t="s">
         <v>116</v>
       </c>
@@ -12283,6 +13617,9 @@
       <c r="C448" t="s">
         <v>1412</v>
       </c>
+      <c r="D448" s="4">
+        <v>50</v>
+      </c>
       <c r="E448" t="s">
         <v>150</v>
       </c>
@@ -12300,6 +13637,9 @@
       <c r="C449" t="s">
         <v>1412</v>
       </c>
+      <c r="D449" s="4">
+        <v>50</v>
+      </c>
       <c r="E449" t="s">
         <v>327</v>
       </c>
@@ -12317,6 +13657,9 @@
       <c r="C450" t="s">
         <v>1412</v>
       </c>
+      <c r="D450" s="4">
+        <v>50</v>
+      </c>
       <c r="E450" t="s">
         <v>8</v>
       </c>
@@ -12334,6 +13677,9 @@
       <c r="C451" t="s">
         <v>1412</v>
       </c>
+      <c r="D451" s="4">
+        <v>50</v>
+      </c>
       <c r="E451" t="s">
         <v>46</v>
       </c>
@@ -12351,6 +13697,9 @@
       <c r="C452" t="s">
         <v>1412</v>
       </c>
+      <c r="D452" s="4">
+        <v>50</v>
+      </c>
       <c r="E452" t="s">
         <v>327</v>
       </c>
@@ -12368,6 +13717,9 @@
       <c r="C453" t="s">
         <v>1412</v>
       </c>
+      <c r="D453" s="4">
+        <v>50</v>
+      </c>
       <c r="E453" t="s">
         <v>302</v>
       </c>
@@ -12385,6 +13737,9 @@
       <c r="C454" t="s">
         <v>1412</v>
       </c>
+      <c r="D454" s="4">
+        <v>50</v>
+      </c>
       <c r="E454" t="s">
         <v>166</v>
       </c>
@@ -12402,6 +13757,9 @@
       <c r="C455" t="s">
         <v>1412</v>
       </c>
+      <c r="D455" s="4">
+        <v>50</v>
+      </c>
       <c r="E455" t="s">
         <v>108</v>
       </c>
@@ -12419,6 +13777,9 @@
       <c r="C456" t="s">
         <v>1412</v>
       </c>
+      <c r="D456" s="4">
+        <v>50</v>
+      </c>
       <c r="E456" t="s">
         <v>5</v>
       </c>
@@ -12436,6 +13797,9 @@
       <c r="C457" t="s">
         <v>1412</v>
       </c>
+      <c r="D457" s="4">
+        <v>50</v>
+      </c>
       <c r="E457" t="s">
         <v>5</v>
       </c>
@@ -12453,6 +13817,9 @@
       <c r="C458" t="s">
         <v>1412</v>
       </c>
+      <c r="D458" s="4">
+        <v>50</v>
+      </c>
       <c r="E458" t="s">
         <v>46</v>
       </c>
@@ -12470,6 +13837,9 @@
       <c r="C459" t="s">
         <v>1412</v>
       </c>
+      <c r="D459" s="4">
+        <v>50</v>
+      </c>
       <c r="E459" t="s">
         <v>46</v>
       </c>
@@ -12487,6 +13857,9 @@
       <c r="C460" t="s">
         <v>1412</v>
       </c>
+      <c r="D460" s="4">
+        <v>50</v>
+      </c>
       <c r="E460" t="s">
         <v>116</v>
       </c>
@@ -12504,6 +13877,9 @@
       <c r="C461" t="s">
         <v>1412</v>
       </c>
+      <c r="D461" s="4">
+        <v>50</v>
+      </c>
       <c r="E461" t="s">
         <v>108</v>
       </c>
@@ -12521,6 +13897,9 @@
       <c r="C462" t="s">
         <v>1412</v>
       </c>
+      <c r="D462" s="4">
+        <v>50</v>
+      </c>
       <c r="E462" t="s">
         <v>302</v>
       </c>
@@ -12538,6 +13917,9 @@
       <c r="C463" t="s">
         <v>1412</v>
       </c>
+      <c r="D463" s="4">
+        <v>50</v>
+      </c>
       <c r="E463" t="s">
         <v>830</v>
       </c>
@@ -12555,6 +13937,9 @@
       <c r="C464" t="s">
         <v>1412</v>
       </c>
+      <c r="D464" s="4">
+        <v>50</v>
+      </c>
       <c r="E464" t="s">
         <v>297</v>
       </c>
@@ -12572,6 +13957,9 @@
       <c r="C465" t="s">
         <v>1412</v>
       </c>
+      <c r="D465" s="4">
+        <v>50</v>
+      </c>
       <c r="E465" t="s">
         <v>18</v>
       </c>
@@ -12589,6 +13977,9 @@
       <c r="C466" t="s">
         <v>1412</v>
       </c>
+      <c r="D466" s="4">
+        <v>50</v>
+      </c>
       <c r="E466" t="s">
         <v>15</v>
       </c>
@@ -12606,6 +13997,9 @@
       <c r="C467" t="s">
         <v>1412</v>
       </c>
+      <c r="D467" s="4">
+        <v>50</v>
+      </c>
       <c r="E467" t="s">
         <v>46</v>
       </c>
@@ -12623,6 +14017,9 @@
       <c r="C468" t="s">
         <v>1412</v>
       </c>
+      <c r="D468" s="4">
+        <v>50</v>
+      </c>
       <c r="E468" t="s">
         <v>839</v>
       </c>
@@ -12640,6 +14037,9 @@
       <c r="C469" t="s">
         <v>1412</v>
       </c>
+      <c r="D469" s="4">
+        <v>50</v>
+      </c>
       <c r="E469" t="s">
         <v>108</v>
       </c>
@@ -12657,6 +14057,9 @@
       <c r="C470" t="s">
         <v>1412</v>
       </c>
+      <c r="D470" s="4">
+        <v>50</v>
+      </c>
       <c r="E470" t="s">
         <v>108</v>
       </c>
@@ -12674,6 +14077,9 @@
       <c r="C471" t="s">
         <v>1412</v>
       </c>
+      <c r="D471" s="4">
+        <v>50</v>
+      </c>
       <c r="E471" t="s">
         <v>108</v>
       </c>
@@ -12691,6 +14097,9 @@
       <c r="C472" t="s">
         <v>1412</v>
       </c>
+      <c r="D472" s="4">
+        <v>50</v>
+      </c>
       <c r="E472" t="s">
         <v>108</v>
       </c>
@@ -12708,6 +14117,9 @@
       <c r="C473" t="s">
         <v>1412</v>
       </c>
+      <c r="D473" s="4">
+        <v>50</v>
+      </c>
       <c r="E473" t="s">
         <v>108</v>
       </c>
@@ -12725,6 +14137,9 @@
       <c r="C474" t="s">
         <v>1412</v>
       </c>
+      <c r="D474" s="4">
+        <v>50</v>
+      </c>
       <c r="E474" t="s">
         <v>61</v>
       </c>
@@ -12742,6 +14157,9 @@
       <c r="C475" t="s">
         <v>1412</v>
       </c>
+      <c r="D475" s="4">
+        <v>50</v>
+      </c>
       <c r="E475" t="s">
         <v>61</v>
       </c>
@@ -12759,6 +14177,9 @@
       <c r="C476" t="s">
         <v>1412</v>
       </c>
+      <c r="D476" s="4">
+        <v>50</v>
+      </c>
       <c r="E476" t="s">
         <v>108</v>
       </c>
@@ -12776,6 +14197,9 @@
       <c r="C477" t="s">
         <v>1412</v>
       </c>
+      <c r="D477" s="4">
+        <v>50</v>
+      </c>
       <c r="E477" t="s">
         <v>61</v>
       </c>
@@ -12793,6 +14217,9 @@
       <c r="C478" t="s">
         <v>1412</v>
       </c>
+      <c r="D478" s="4">
+        <v>50</v>
+      </c>
       <c r="E478" t="s">
         <v>327</v>
       </c>
@@ -12810,6 +14237,9 @@
       <c r="C479" t="s">
         <v>1412</v>
       </c>
+      <c r="D479" s="4">
+        <v>50</v>
+      </c>
       <c r="E479" t="s">
         <v>327</v>
       </c>
@@ -12827,6 +14257,9 @@
       <c r="C480" t="s">
         <v>1412</v>
       </c>
+      <c r="D480" s="4">
+        <v>50</v>
+      </c>
       <c r="E480" t="s">
         <v>327</v>
       </c>
@@ -12844,6 +14277,9 @@
       <c r="C481" t="s">
         <v>1412</v>
       </c>
+      <c r="D481" s="4">
+        <v>50</v>
+      </c>
       <c r="E481" t="s">
         <v>865</v>
       </c>
@@ -12861,6 +14297,9 @@
       <c r="C482" t="s">
         <v>1412</v>
       </c>
+      <c r="D482" s="4">
+        <v>50</v>
+      </c>
       <c r="E482" t="s">
         <v>865</v>
       </c>
@@ -12878,6 +14317,9 @@
       <c r="C483" t="s">
         <v>1412</v>
       </c>
+      <c r="D483" s="4">
+        <v>50</v>
+      </c>
       <c r="E483" t="s">
         <v>869</v>
       </c>
@@ -12895,6 +14337,9 @@
       <c r="C484" t="s">
         <v>1412</v>
       </c>
+      <c r="D484" s="4">
+        <v>50</v>
+      </c>
       <c r="E484" t="s">
         <v>61</v>
       </c>
@@ -12912,6 +14357,9 @@
       <c r="C485" t="s">
         <v>1412</v>
       </c>
+      <c r="D485" s="4">
+        <v>50</v>
+      </c>
       <c r="E485" t="s">
         <v>302</v>
       </c>
@@ -12929,6 +14377,9 @@
       <c r="C486" t="s">
         <v>1412</v>
       </c>
+      <c r="D486" s="4">
+        <v>50</v>
+      </c>
       <c r="E486" t="s">
         <v>302</v>
       </c>
@@ -12946,6 +14397,9 @@
       <c r="C487" t="s">
         <v>1412</v>
       </c>
+      <c r="D487" s="4">
+        <v>50</v>
+      </c>
       <c r="E487" t="s">
         <v>8</v>
       </c>
@@ -12963,6 +14417,9 @@
       <c r="C488" t="s">
         <v>1412</v>
       </c>
+      <c r="D488" s="4">
+        <v>50</v>
+      </c>
       <c r="E488" t="s">
         <v>152</v>
       </c>
@@ -12980,6 +14437,9 @@
       <c r="C489" t="s">
         <v>1412</v>
       </c>
+      <c r="D489" s="4">
+        <v>50</v>
+      </c>
       <c r="E489" t="s">
         <v>46</v>
       </c>
@@ -12997,6 +14457,9 @@
       <c r="C490" t="s">
         <v>1412</v>
       </c>
+      <c r="D490" s="4">
+        <v>50</v>
+      </c>
       <c r="E490" t="s">
         <v>5</v>
       </c>
@@ -13014,6 +14477,9 @@
       <c r="C491" t="s">
         <v>1412</v>
       </c>
+      <c r="D491" s="4">
+        <v>50</v>
+      </c>
       <c r="E491" t="s">
         <v>333</v>
       </c>
@@ -13031,6 +14497,9 @@
       <c r="C492" t="s">
         <v>1412</v>
       </c>
+      <c r="D492" s="4">
+        <v>50</v>
+      </c>
       <c r="E492" t="s">
         <v>887</v>
       </c>
@@ -13048,6 +14517,9 @@
       <c r="C493" t="s">
         <v>1412</v>
       </c>
+      <c r="D493" s="4">
+        <v>50</v>
+      </c>
       <c r="E493" t="s">
         <v>607</v>
       </c>
@@ -13065,6 +14537,9 @@
       <c r="C494" t="s">
         <v>1412</v>
       </c>
+      <c r="D494" s="4">
+        <v>50</v>
+      </c>
       <c r="E494" t="s">
         <v>890</v>
       </c>
@@ -13082,6 +14557,9 @@
       <c r="C495" t="s">
         <v>1412</v>
       </c>
+      <c r="D495" s="4">
+        <v>50</v>
+      </c>
       <c r="E495" t="s">
         <v>887</v>
       </c>
@@ -13099,6 +14577,9 @@
       <c r="C496" t="s">
         <v>1412</v>
       </c>
+      <c r="D496" s="4">
+        <v>50</v>
+      </c>
       <c r="E496" t="s">
         <v>46</v>
       </c>
@@ -13116,6 +14597,9 @@
       <c r="C497" t="s">
         <v>1412</v>
       </c>
+      <c r="D497" s="4">
+        <v>50</v>
+      </c>
       <c r="E497" t="s">
         <v>108</v>
       </c>
@@ -13133,6 +14617,9 @@
       <c r="C498" t="s">
         <v>1412</v>
       </c>
+      <c r="D498" s="4">
+        <v>50</v>
+      </c>
       <c r="E498" t="s">
         <v>324</v>
       </c>
@@ -13150,6 +14637,9 @@
       <c r="C499" t="s">
         <v>1412</v>
       </c>
+      <c r="D499" s="4">
+        <v>50</v>
+      </c>
       <c r="E499" t="s">
         <v>8</v>
       </c>
@@ -13167,6 +14657,9 @@
       <c r="C500" t="s">
         <v>1412</v>
       </c>
+      <c r="D500" s="4">
+        <v>50</v>
+      </c>
       <c r="E500" t="s">
         <v>116</v>
       </c>
@@ -13184,6 +14677,9 @@
       <c r="C501" t="s">
         <v>1412</v>
       </c>
+      <c r="D501" s="4">
+        <v>50</v>
+      </c>
       <c r="E501" t="s">
         <v>330</v>
       </c>
@@ -13201,7 +14697,9 @@
       <c r="C502" t="s">
         <v>1412</v>
       </c>
-      <c r="D502" s="5"/>
+      <c r="D502" s="4">
+        <v>50</v>
+      </c>
       <c r="E502" t="s">
         <v>8</v>
       </c>
@@ -13219,6 +14717,9 @@
       <c r="C503" t="s">
         <v>1412</v>
       </c>
+      <c r="D503" s="4">
+        <v>50</v>
+      </c>
       <c r="E503" t="s">
         <v>46</v>
       </c>
@@ -13236,6 +14737,9 @@
       <c r="C504" t="s">
         <v>1412</v>
       </c>
+      <c r="D504" s="4">
+        <v>50</v>
+      </c>
       <c r="E504" t="s">
         <v>8</v>
       </c>
@@ -13253,6 +14757,9 @@
       <c r="C505" t="s">
         <v>1412</v>
       </c>
+      <c r="D505" s="4">
+        <v>50</v>
+      </c>
       <c r="E505" t="s">
         <v>297</v>
       </c>
@@ -13270,6 +14777,9 @@
       <c r="C506" t="s">
         <v>1412</v>
       </c>
+      <c r="D506" s="4">
+        <v>50</v>
+      </c>
       <c r="E506" t="s">
         <v>297</v>
       </c>
@@ -13287,7 +14797,9 @@
       <c r="C507" t="s">
         <v>1412</v>
       </c>
-      <c r="D507" s="5"/>
+      <c r="D507" s="4">
+        <v>50</v>
+      </c>
       <c r="E507" t="s">
         <v>302</v>
       </c>
@@ -13305,6 +14817,9 @@
       <c r="C508" t="s">
         <v>1412</v>
       </c>
+      <c r="D508" s="4">
+        <v>50</v>
+      </c>
       <c r="E508" t="s">
         <v>61</v>
       </c>
@@ -13322,6 +14837,9 @@
       <c r="C509" t="s">
         <v>1412</v>
       </c>
+      <c r="D509" s="4">
+        <v>50</v>
+      </c>
       <c r="E509" t="s">
         <v>293</v>
       </c>
@@ -13339,6 +14857,9 @@
       <c r="C510" t="s">
         <v>1412</v>
       </c>
+      <c r="D510" s="4">
+        <v>50</v>
+      </c>
       <c r="E510" t="s">
         <v>491</v>
       </c>
@@ -13356,6 +14877,9 @@
       <c r="C511" t="s">
         <v>1412</v>
       </c>
+      <c r="D511" s="4">
+        <v>50</v>
+      </c>
       <c r="E511" t="s">
         <v>5</v>
       </c>
@@ -13373,6 +14897,9 @@
       <c r="C512" t="s">
         <v>1412</v>
       </c>
+      <c r="D512" s="4">
+        <v>50</v>
+      </c>
       <c r="E512" t="s">
         <v>911</v>
       </c>
@@ -13390,6 +14917,9 @@
       <c r="C513" t="s">
         <v>1412</v>
       </c>
+      <c r="D513" s="4">
+        <v>50</v>
+      </c>
       <c r="E513" t="s">
         <v>914</v>
       </c>
@@ -13407,6 +14937,9 @@
       <c r="C514" t="s">
         <v>1412</v>
       </c>
+      <c r="D514" s="4">
+        <v>50</v>
+      </c>
       <c r="E514" t="s">
         <v>917</v>
       </c>
@@ -13424,6 +14957,9 @@
       <c r="C515" t="s">
         <v>1412</v>
       </c>
+      <c r="D515" s="4">
+        <v>50</v>
+      </c>
       <c r="E515" t="s">
         <v>920</v>
       </c>
@@ -13441,6 +14977,9 @@
       <c r="C516" t="s">
         <v>1412</v>
       </c>
+      <c r="D516" s="4">
+        <v>50</v>
+      </c>
       <c r="E516" t="s">
         <v>920</v>
       </c>
@@ -13458,6 +14997,9 @@
       <c r="C517" t="s">
         <v>1412</v>
       </c>
+      <c r="D517" s="4">
+        <v>50</v>
+      </c>
       <c r="E517" t="s">
         <v>920</v>
       </c>
@@ -13475,6 +15017,9 @@
       <c r="C518" t="s">
         <v>1412</v>
       </c>
+      <c r="D518" s="4">
+        <v>50</v>
+      </c>
       <c r="E518" t="s">
         <v>926</v>
       </c>
@@ -13492,6 +15037,9 @@
       <c r="C519" t="s">
         <v>1412</v>
       </c>
+      <c r="D519" s="4">
+        <v>50</v>
+      </c>
       <c r="E519" t="s">
         <v>491</v>
       </c>
@@ -13509,6 +15057,9 @@
       <c r="C520" t="s">
         <v>1412</v>
       </c>
+      <c r="D520" s="4">
+        <v>50</v>
+      </c>
       <c r="E520" t="s">
         <v>8</v>
       </c>
@@ -13526,6 +15077,9 @@
       <c r="C521" t="s">
         <v>1412</v>
       </c>
+      <c r="D521" s="4">
+        <v>50</v>
+      </c>
       <c r="E521" t="s">
         <v>38</v>
       </c>
@@ -13543,6 +15097,9 @@
       <c r="C522" t="s">
         <v>1412</v>
       </c>
+      <c r="D522" s="4">
+        <v>50</v>
+      </c>
       <c r="E522" t="s">
         <v>5</v>
       </c>
@@ -13560,6 +15117,9 @@
       <c r="C523" t="s">
         <v>1412</v>
       </c>
+      <c r="D523" s="4">
+        <v>50</v>
+      </c>
       <c r="E523" t="s">
         <v>169</v>
       </c>
@@ -13577,6 +15137,9 @@
       <c r="C524" t="s">
         <v>1412</v>
       </c>
+      <c r="D524" s="4">
+        <v>50</v>
+      </c>
       <c r="E524" t="s">
         <v>5</v>
       </c>
@@ -13594,6 +15157,9 @@
       <c r="C525" t="s">
         <v>1412</v>
       </c>
+      <c r="D525" s="4">
+        <v>50</v>
+      </c>
       <c r="E525" t="s">
         <v>15</v>
       </c>
@@ -13611,6 +15177,9 @@
       <c r="C526" t="s">
         <v>1412</v>
       </c>
+      <c r="D526" s="4">
+        <v>50</v>
+      </c>
       <c r="E526" t="s">
         <v>197</v>
       </c>
@@ -13628,6 +15197,9 @@
       <c r="C527" t="s">
         <v>1412</v>
       </c>
+      <c r="D527" s="4">
+        <v>50</v>
+      </c>
       <c r="E527" t="s">
         <v>917</v>
       </c>
@@ -13645,6 +15217,9 @@
       <c r="C528" t="s">
         <v>1412</v>
       </c>
+      <c r="D528" s="4">
+        <v>50</v>
+      </c>
       <c r="E528" t="s">
         <v>947</v>
       </c>
@@ -13662,6 +15237,9 @@
       <c r="C529" t="s">
         <v>1412</v>
       </c>
+      <c r="D529" s="4">
+        <v>50</v>
+      </c>
       <c r="E529" t="s">
         <v>947</v>
       </c>
@@ -13679,6 +15257,9 @@
       <c r="C530" t="s">
         <v>1412</v>
       </c>
+      <c r="D530" s="4">
+        <v>50</v>
+      </c>
       <c r="E530" t="s">
         <v>491</v>
       </c>
@@ -13696,6 +15277,9 @@
       <c r="C531" t="s">
         <v>1412</v>
       </c>
+      <c r="D531" s="4">
+        <v>50</v>
+      </c>
       <c r="E531" t="s">
         <v>18</v>
       </c>
@@ -13713,6 +15297,9 @@
       <c r="C532" t="s">
         <v>1412</v>
       </c>
+      <c r="D532" s="4">
+        <v>50</v>
+      </c>
       <c r="E532" t="s">
         <v>61</v>
       </c>
@@ -13730,6 +15317,9 @@
       <c r="C533" t="s">
         <v>1412</v>
       </c>
+      <c r="D533" s="4">
+        <v>50</v>
+      </c>
       <c r="E533" t="s">
         <v>61</v>
       </c>
@@ -13747,6 +15337,9 @@
       <c r="C534" t="s">
         <v>1412</v>
       </c>
+      <c r="D534" s="4">
+        <v>50</v>
+      </c>
       <c r="E534" t="s">
         <v>5</v>
       </c>
@@ -13764,6 +15357,9 @@
       <c r="C535" t="s">
         <v>1412</v>
       </c>
+      <c r="D535" s="4">
+        <v>50</v>
+      </c>
       <c r="E535" t="s">
         <v>46</v>
       </c>
@@ -13781,6 +15377,9 @@
       <c r="C536" t="s">
         <v>1412</v>
       </c>
+      <c r="D536" s="4">
+        <v>50</v>
+      </c>
       <c r="E536" t="s">
         <v>150</v>
       </c>
@@ -13798,6 +15397,9 @@
       <c r="C537" t="s">
         <v>1412</v>
       </c>
+      <c r="D537" s="4">
+        <v>50</v>
+      </c>
       <c r="E537" t="s">
         <v>150</v>
       </c>
@@ -13815,6 +15417,9 @@
       <c r="C538" t="s">
         <v>1412</v>
       </c>
+      <c r="D538" s="4">
+        <v>50</v>
+      </c>
       <c r="E538" t="s">
         <v>8</v>
       </c>
@@ -13832,6 +15437,9 @@
       <c r="C539" t="s">
         <v>1412</v>
       </c>
+      <c r="D539" s="4">
+        <v>50</v>
+      </c>
       <c r="E539" t="s">
         <v>61</v>
       </c>
@@ -13849,6 +15457,9 @@
       <c r="C540" t="s">
         <v>1412</v>
       </c>
+      <c r="D540" s="4">
+        <v>50</v>
+      </c>
       <c r="E540" t="s">
         <v>150</v>
       </c>
@@ -13866,6 +15477,9 @@
       <c r="C541" t="s">
         <v>1412</v>
       </c>
+      <c r="D541" s="4">
+        <v>50</v>
+      </c>
       <c r="E541" t="s">
         <v>108</v>
       </c>
@@ -13883,6 +15497,9 @@
       <c r="C542" t="s">
         <v>1412</v>
       </c>
+      <c r="D542" s="4">
+        <v>50</v>
+      </c>
       <c r="E542" t="s">
         <v>327</v>
       </c>
@@ -13900,6 +15517,9 @@
       <c r="C543" t="s">
         <v>1412</v>
       </c>
+      <c r="D543" s="4">
+        <v>50</v>
+      </c>
       <c r="E543" t="s">
         <v>197</v>
       </c>
@@ -13917,6 +15537,9 @@
       <c r="C544" t="s">
         <v>1412</v>
       </c>
+      <c r="D544" s="4">
+        <v>50</v>
+      </c>
       <c r="E544" t="s">
         <v>327</v>
       </c>
@@ -13934,6 +15557,9 @@
       <c r="C545" t="s">
         <v>1412</v>
       </c>
+      <c r="D545" s="4">
+        <v>50</v>
+      </c>
       <c r="E545" t="s">
         <v>327</v>
       </c>
@@ -13951,6 +15577,9 @@
       <c r="C546" t="s">
         <v>1412</v>
       </c>
+      <c r="D546" s="4">
+        <v>50</v>
+      </c>
       <c r="E546" t="s">
         <v>38</v>
       </c>
@@ -13968,6 +15597,9 @@
       <c r="C547" t="s">
         <v>1412</v>
       </c>
+      <c r="D547" s="4">
+        <v>50</v>
+      </c>
       <c r="E547" t="s">
         <v>18</v>
       </c>
@@ -13985,6 +15617,9 @@
       <c r="C548" t="s">
         <v>1412</v>
       </c>
+      <c r="D548" s="4">
+        <v>50</v>
+      </c>
       <c r="E548" t="s">
         <v>8</v>
       </c>
@@ -14002,6 +15637,9 @@
       <c r="C549" t="s">
         <v>1412</v>
       </c>
+      <c r="D549" s="4">
+        <v>50</v>
+      </c>
       <c r="E549" t="s">
         <v>150</v>
       </c>
@@ -14019,6 +15657,9 @@
       <c r="C550" t="s">
         <v>1412</v>
       </c>
+      <c r="D550" s="4">
+        <v>50</v>
+      </c>
       <c r="E550" t="s">
         <v>150</v>
       </c>
@@ -14036,6 +15677,9 @@
       <c r="C551" t="s">
         <v>1412</v>
       </c>
+      <c r="D551" s="4">
+        <v>50</v>
+      </c>
       <c r="E551" t="s">
         <v>38</v>
       </c>
@@ -14053,6 +15697,9 @@
       <c r="C552" t="s">
         <v>1412</v>
       </c>
+      <c r="D552" s="4">
+        <v>50</v>
+      </c>
       <c r="E552" t="s">
         <v>38</v>
       </c>
@@ -14070,6 +15717,9 @@
       <c r="C553" t="s">
         <v>1412</v>
       </c>
+      <c r="D553" s="4">
+        <v>50</v>
+      </c>
       <c r="E553" t="s">
         <v>18</v>
       </c>
@@ -14087,6 +15737,9 @@
       <c r="C554" t="s">
         <v>1412</v>
       </c>
+      <c r="D554" s="4">
+        <v>50</v>
+      </c>
       <c r="E554" t="s">
         <v>18</v>
       </c>
@@ -14104,6 +15757,9 @@
       <c r="C555" t="s">
         <v>1412</v>
       </c>
+      <c r="D555" s="4">
+        <v>50</v>
+      </c>
       <c r="E555" t="s">
         <v>8</v>
       </c>
@@ -14121,6 +15777,9 @@
       <c r="C556" t="s">
         <v>1412</v>
       </c>
+      <c r="D556" s="4">
+        <v>50</v>
+      </c>
       <c r="E556" t="s">
         <v>8</v>
       </c>
@@ -14138,6 +15797,9 @@
       <c r="C557" t="s">
         <v>1412</v>
       </c>
+      <c r="D557" s="4">
+        <v>50</v>
+      </c>
       <c r="E557" t="s">
         <v>18</v>
       </c>
@@ -14155,6 +15817,9 @@
       <c r="C558" t="s">
         <v>1412</v>
       </c>
+      <c r="D558" s="4">
+        <v>50</v>
+      </c>
       <c r="E558" t="s">
         <v>18</v>
       </c>
@@ -14172,6 +15837,9 @@
       <c r="C559" t="s">
         <v>1412</v>
       </c>
+      <c r="D559" s="4">
+        <v>50</v>
+      </c>
       <c r="E559" t="s">
         <v>18</v>
       </c>
@@ -14189,6 +15857,9 @@
       <c r="C560" t="s">
         <v>1412</v>
       </c>
+      <c r="D560" s="4">
+        <v>50</v>
+      </c>
       <c r="E560" t="s">
         <v>407</v>
       </c>
@@ -14206,6 +15877,9 @@
       <c r="C561" t="s">
         <v>1412</v>
       </c>
+      <c r="D561" s="4">
+        <v>50</v>
+      </c>
       <c r="E561" t="s">
         <v>407</v>
       </c>
@@ -14223,6 +15897,9 @@
       <c r="C562" t="s">
         <v>1412</v>
       </c>
+      <c r="D562" s="4">
+        <v>50</v>
+      </c>
       <c r="E562" t="s">
         <v>15</v>
       </c>
@@ -14240,6 +15917,9 @@
       <c r="C563" t="s">
         <v>1412</v>
       </c>
+      <c r="D563" s="4">
+        <v>50</v>
+      </c>
       <c r="E563" t="s">
         <v>15</v>
       </c>
@@ -14257,6 +15937,9 @@
       <c r="C564" t="s">
         <v>1412</v>
       </c>
+      <c r="D564" s="4">
+        <v>50</v>
+      </c>
       <c r="E564" t="s">
         <v>18</v>
       </c>
@@ -14274,6 +15957,9 @@
       <c r="C565" t="s">
         <v>1412</v>
       </c>
+      <c r="D565" s="4">
+        <v>50</v>
+      </c>
       <c r="E565" t="s">
         <v>18</v>
       </c>
@@ -14291,6 +15977,9 @@
       <c r="C566" t="s">
         <v>1412</v>
       </c>
+      <c r="D566" s="4">
+        <v>50</v>
+      </c>
       <c r="E566" t="s">
         <v>1012</v>
       </c>
@@ -14308,6 +15997,9 @@
       <c r="C567" t="s">
         <v>1412</v>
       </c>
+      <c r="D567" s="4">
+        <v>50</v>
+      </c>
       <c r="E567" t="s">
         <v>108</v>
       </c>
@@ -14325,6 +16017,9 @@
       <c r="C568" t="s">
         <v>1412</v>
       </c>
+      <c r="D568" s="4">
+        <v>50</v>
+      </c>
       <c r="E568" t="s">
         <v>150</v>
       </c>
@@ -14342,6 +16037,9 @@
       <c r="C569" t="s">
         <v>1412</v>
       </c>
+      <c r="D569" s="4">
+        <v>50</v>
+      </c>
       <c r="E569" t="s">
         <v>202</v>
       </c>
@@ -14359,6 +16057,9 @@
       <c r="C570" t="s">
         <v>1412</v>
       </c>
+      <c r="D570" s="4">
+        <v>50</v>
+      </c>
       <c r="E570" t="s">
         <v>108</v>
       </c>
@@ -14376,6 +16077,9 @@
       <c r="C571" t="s">
         <v>1412</v>
       </c>
+      <c r="D571" s="4">
+        <v>50</v>
+      </c>
       <c r="E571" t="s">
         <v>197</v>
       </c>
@@ -14393,6 +16097,9 @@
       <c r="C572" t="s">
         <v>1412</v>
       </c>
+      <c r="D572" s="4">
+        <v>50</v>
+      </c>
       <c r="E572" t="s">
         <v>197</v>
       </c>
@@ -14410,6 +16117,9 @@
       <c r="C573" t="s">
         <v>1412</v>
       </c>
+      <c r="D573" s="4">
+        <v>50</v>
+      </c>
       <c r="E573" t="s">
         <v>202</v>
       </c>
@@ -14427,6 +16137,9 @@
       <c r="C574" t="s">
         <v>1412</v>
       </c>
+      <c r="D574" s="4">
+        <v>50</v>
+      </c>
       <c r="E574" t="s">
         <v>202</v>
       </c>
@@ -14444,6 +16157,9 @@
       <c r="C575" t="s">
         <v>1412</v>
       </c>
+      <c r="D575" s="4">
+        <v>50</v>
+      </c>
       <c r="E575" t="s">
         <v>197</v>
       </c>
@@ -14461,6 +16177,9 @@
       <c r="C576" t="s">
         <v>1412</v>
       </c>
+      <c r="D576" s="4">
+        <v>50</v>
+      </c>
       <c r="E576" t="s">
         <v>327</v>
       </c>
@@ -14478,6 +16197,9 @@
       <c r="C577" t="s">
         <v>1412</v>
       </c>
+      <c r="D577" s="4">
+        <v>50</v>
+      </c>
       <c r="E577" t="s">
         <v>5</v>
       </c>
@@ -14495,6 +16217,9 @@
       <c r="C578" t="s">
         <v>1412</v>
       </c>
+      <c r="D578" s="4">
+        <v>50</v>
+      </c>
       <c r="E578" t="s">
         <v>5</v>
       </c>
@@ -14512,6 +16237,9 @@
       <c r="C579" t="s">
         <v>1412</v>
       </c>
+      <c r="D579" s="4">
+        <v>50</v>
+      </c>
       <c r="E579" t="s">
         <v>166</v>
       </c>
@@ -14529,6 +16257,9 @@
       <c r="C580" t="s">
         <v>1412</v>
       </c>
+      <c r="D580" s="4">
+        <v>50</v>
+      </c>
       <c r="E580" t="s">
         <v>166</v>
       </c>
@@ -14546,6 +16277,9 @@
       <c r="C581" t="s">
         <v>1412</v>
       </c>
+      <c r="D581" s="4">
+        <v>50</v>
+      </c>
       <c r="E581" t="s">
         <v>150</v>
       </c>
@@ -14563,6 +16297,9 @@
       <c r="C582" t="s">
         <v>1412</v>
       </c>
+      <c r="D582" s="4">
+        <v>50</v>
+      </c>
       <c r="E582" t="s">
         <v>1042</v>
       </c>
@@ -14580,6 +16317,9 @@
       <c r="C583" t="s">
         <v>1412</v>
       </c>
+      <c r="D583" s="4">
+        <v>50</v>
+      </c>
       <c r="E583" t="s">
         <v>169</v>
       </c>
@@ -14597,6 +16337,9 @@
       <c r="C584" t="s">
         <v>1412</v>
       </c>
+      <c r="D584" s="4">
+        <v>50</v>
+      </c>
       <c r="E584" t="s">
         <v>61</v>
       </c>
@@ -14614,6 +16357,9 @@
       <c r="C585" t="s">
         <v>1412</v>
       </c>
+      <c r="D585" s="4">
+        <v>50</v>
+      </c>
       <c r="E585" t="s">
         <v>561</v>
       </c>
@@ -14631,6 +16377,9 @@
       <c r="C586" t="s">
         <v>1412</v>
       </c>
+      <c r="D586" s="4">
+        <v>50</v>
+      </c>
       <c r="E586" t="s">
         <v>61</v>
       </c>
@@ -14648,6 +16397,9 @@
       <c r="C587" t="s">
         <v>1412</v>
       </c>
+      <c r="D587" s="4">
+        <v>50</v>
+      </c>
       <c r="E587" t="s">
         <v>561</v>
       </c>
@@ -14665,6 +16417,9 @@
       <c r="C588" t="s">
         <v>1412</v>
       </c>
+      <c r="D588" s="4">
+        <v>50</v>
+      </c>
       <c r="E588" t="s">
         <v>61</v>
       </c>
@@ -14682,6 +16437,9 @@
       <c r="C589" t="s">
         <v>1412</v>
       </c>
+      <c r="D589" s="4">
+        <v>50</v>
+      </c>
       <c r="E589" t="s">
         <v>302</v>
       </c>
@@ -14699,6 +16457,9 @@
       <c r="C590" t="s">
         <v>1412</v>
       </c>
+      <c r="D590" s="4">
+        <v>50</v>
+      </c>
       <c r="E590" t="s">
         <v>5</v>
       </c>
@@ -14716,6 +16477,9 @@
       <c r="C591" t="s">
         <v>1412</v>
       </c>
+      <c r="D591" s="4">
+        <v>50</v>
+      </c>
       <c r="E591" t="s">
         <v>18</v>
       </c>
@@ -14733,6 +16497,9 @@
       <c r="C592" t="s">
         <v>1412</v>
       </c>
+      <c r="D592" s="4">
+        <v>50</v>
+      </c>
       <c r="E592" t="s">
         <v>152</v>
       </c>
@@ -14750,6 +16517,9 @@
       <c r="C593" t="s">
         <v>1412</v>
       </c>
+      <c r="D593" s="4">
+        <v>50</v>
+      </c>
       <c r="E593" t="s">
         <v>166</v>
       </c>
@@ -14767,6 +16537,9 @@
       <c r="C594" t="s">
         <v>1412</v>
       </c>
+      <c r="D594" s="4">
+        <v>50</v>
+      </c>
       <c r="E594" t="s">
         <v>166</v>
       </c>
@@ -14784,6 +16557,9 @@
       <c r="C595" t="s">
         <v>1412</v>
       </c>
+      <c r="D595" s="4">
+        <v>50</v>
+      </c>
       <c r="E595" t="s">
         <v>407</v>
       </c>
@@ -14801,6 +16577,9 @@
       <c r="C596" t="s">
         <v>1412</v>
       </c>
+      <c r="D596" s="4">
+        <v>50</v>
+      </c>
       <c r="E596" t="s">
         <v>407</v>
       </c>
@@ -14818,6 +16597,9 @@
       <c r="C597" t="s">
         <v>1412</v>
       </c>
+      <c r="D597" s="4">
+        <v>50</v>
+      </c>
       <c r="E597" t="s">
         <v>407</v>
       </c>
@@ -14835,6 +16617,9 @@
       <c r="C598" t="s">
         <v>1412</v>
       </c>
+      <c r="D598" s="4">
+        <v>50</v>
+      </c>
       <c r="E598" t="s">
         <v>407</v>
       </c>
@@ -14852,6 +16637,9 @@
       <c r="C599" t="s">
         <v>1412</v>
       </c>
+      <c r="D599" s="4">
+        <v>50</v>
+      </c>
       <c r="E599" t="s">
         <v>561</v>
       </c>
@@ -14869,6 +16657,9 @@
       <c r="C600" t="s">
         <v>1412</v>
       </c>
+      <c r="D600" s="4">
+        <v>50</v>
+      </c>
       <c r="E600" t="s">
         <v>169</v>
       </c>
@@ -14886,6 +16677,9 @@
       <c r="C601" t="s">
         <v>1412</v>
       </c>
+      <c r="D601" s="4">
+        <v>50</v>
+      </c>
       <c r="E601" t="s">
         <v>169</v>
       </c>
@@ -14903,6 +16697,9 @@
       <c r="C602" t="s">
         <v>1412</v>
       </c>
+      <c r="D602" s="4">
+        <v>50</v>
+      </c>
       <c r="E602" t="s">
         <v>197</v>
       </c>
@@ -14920,6 +16717,9 @@
       <c r="C603" t="s">
         <v>1412</v>
       </c>
+      <c r="D603" s="4">
+        <v>50</v>
+      </c>
       <c r="E603" t="s">
         <v>197</v>
       </c>
@@ -14937,6 +16737,9 @@
       <c r="C604" t="s">
         <v>1412</v>
       </c>
+      <c r="D604" s="4">
+        <v>50</v>
+      </c>
       <c r="E604" t="s">
         <v>197</v>
       </c>
@@ -14954,6 +16757,9 @@
       <c r="C605" t="s">
         <v>1412</v>
       </c>
+      <c r="D605" s="4">
+        <v>50</v>
+      </c>
       <c r="E605" t="s">
         <v>407</v>
       </c>
@@ -14971,6 +16777,9 @@
       <c r="C606" t="s">
         <v>1412</v>
       </c>
+      <c r="D606" s="4">
+        <v>50</v>
+      </c>
       <c r="E606" t="s">
         <v>197</v>
       </c>
@@ -14988,6 +16797,9 @@
       <c r="C607" t="s">
         <v>1412</v>
       </c>
+      <c r="D607" s="4">
+        <v>50</v>
+      </c>
       <c r="E607" t="s">
         <v>197</v>
       </c>
@@ -15005,6 +16817,9 @@
       <c r="C608" t="s">
         <v>1412</v>
       </c>
+      <c r="D608" s="4">
+        <v>50</v>
+      </c>
       <c r="E608" t="s">
         <v>197</v>
       </c>
@@ -15022,6 +16837,9 @@
       <c r="C609" t="s">
         <v>1412</v>
       </c>
+      <c r="D609" s="4">
+        <v>50</v>
+      </c>
       <c r="E609" t="s">
         <v>5</v>
       </c>
@@ -15039,6 +16857,9 @@
       <c r="C610" t="s">
         <v>1412</v>
       </c>
+      <c r="D610" s="4">
+        <v>50</v>
+      </c>
       <c r="E610" t="s">
         <v>5</v>
       </c>
@@ -15056,6 +16877,9 @@
       <c r="C611" t="s">
         <v>1412</v>
       </c>
+      <c r="D611" s="4">
+        <v>50</v>
+      </c>
       <c r="E611" t="s">
         <v>865</v>
       </c>
@@ -15073,6 +16897,9 @@
       <c r="C612" t="s">
         <v>1412</v>
       </c>
+      <c r="D612" s="4">
+        <v>50</v>
+      </c>
       <c r="E612" t="s">
         <v>865</v>
       </c>
@@ -15090,6 +16917,9 @@
       <c r="C613" t="s">
         <v>1412</v>
       </c>
+      <c r="D613" s="4">
+        <v>50</v>
+      </c>
       <c r="E613" t="s">
         <v>865</v>
       </c>
@@ -15107,6 +16937,9 @@
       <c r="C614" t="s">
         <v>1412</v>
       </c>
+      <c r="D614" s="4">
+        <v>50</v>
+      </c>
       <c r="E614" t="s">
         <v>302</v>
       </c>
@@ -15124,6 +16957,9 @@
       <c r="C615" t="s">
         <v>1412</v>
       </c>
+      <c r="D615" s="4">
+        <v>50</v>
+      </c>
       <c r="E615" t="s">
         <v>8</v>
       </c>
@@ -15141,6 +16977,9 @@
       <c r="C616" t="s">
         <v>1412</v>
       </c>
+      <c r="D616" s="4">
+        <v>50</v>
+      </c>
       <c r="E616" t="s">
         <v>8</v>
       </c>
@@ -15158,6 +16997,9 @@
       <c r="C617" t="s">
         <v>1412</v>
       </c>
+      <c r="D617" s="4">
+        <v>50</v>
+      </c>
       <c r="E617" t="s">
         <v>61</v>
       </c>
@@ -15175,6 +17017,9 @@
       <c r="C618" t="s">
         <v>1412</v>
       </c>
+      <c r="D618" s="4">
+        <v>50</v>
+      </c>
       <c r="E618" t="s">
         <v>150</v>
       </c>
@@ -15192,6 +17037,9 @@
       <c r="C619" t="s">
         <v>1412</v>
       </c>
+      <c r="D619" s="4">
+        <v>50</v>
+      </c>
       <c r="E619" t="s">
         <v>302</v>
       </c>
@@ -15209,6 +17057,9 @@
       <c r="C620" t="s">
         <v>1412</v>
       </c>
+      <c r="D620" s="4">
+        <v>50</v>
+      </c>
       <c r="E620" t="s">
         <v>302</v>
       </c>
@@ -15226,6 +17077,9 @@
       <c r="C621" t="s">
         <v>1412</v>
       </c>
+      <c r="D621" s="4">
+        <v>50</v>
+      </c>
       <c r="E621" t="s">
         <v>5</v>
       </c>
@@ -15243,6 +17097,9 @@
       <c r="C622" t="s">
         <v>1412</v>
       </c>
+      <c r="D622" s="4">
+        <v>50</v>
+      </c>
       <c r="E622" t="s">
         <v>5</v>
       </c>
@@ -15260,6 +17117,9 @@
       <c r="C623" t="s">
         <v>1412</v>
       </c>
+      <c r="D623" s="4">
+        <v>50</v>
+      </c>
       <c r="E623" t="s">
         <v>324</v>
       </c>
@@ -15277,6 +17137,9 @@
       <c r="C624" t="s">
         <v>1412</v>
       </c>
+      <c r="D624" s="4">
+        <v>50</v>
+      </c>
       <c r="E624" t="s">
         <v>302</v>
       </c>
@@ -15294,6 +17157,9 @@
       <c r="C625" t="s">
         <v>1412</v>
       </c>
+      <c r="D625" s="4">
+        <v>50</v>
+      </c>
       <c r="E625" t="s">
         <v>46</v>
       </c>
@@ -15311,6 +17177,9 @@
       <c r="C626" t="s">
         <v>1412</v>
       </c>
+      <c r="D626" s="4">
+        <v>50</v>
+      </c>
       <c r="E626" t="s">
         <v>46</v>
       </c>
@@ -15328,6 +17197,9 @@
       <c r="C627" t="s">
         <v>1412</v>
       </c>
+      <c r="D627" s="4">
+        <v>50</v>
+      </c>
       <c r="E627" t="s">
         <v>8</v>
       </c>
@@ -15345,6 +17217,9 @@
       <c r="C628" t="s">
         <v>1412</v>
       </c>
+      <c r="D628" s="4">
+        <v>50</v>
+      </c>
       <c r="E628" t="s">
         <v>61</v>
       </c>
@@ -15362,6 +17237,9 @@
       <c r="C629" t="s">
         <v>1412</v>
       </c>
+      <c r="D629" s="4">
+        <v>50</v>
+      </c>
       <c r="E629" t="s">
         <v>61</v>
       </c>
@@ -15379,6 +17257,9 @@
       <c r="C630" t="s">
         <v>1412</v>
       </c>
+      <c r="D630" s="4">
+        <v>50</v>
+      </c>
       <c r="E630" t="s">
         <v>46</v>
       </c>
@@ -15396,6 +17277,9 @@
       <c r="C631" t="s">
         <v>1412</v>
       </c>
+      <c r="D631" s="4">
+        <v>50</v>
+      </c>
       <c r="E631" t="s">
         <v>8</v>
       </c>
@@ -15413,6 +17297,9 @@
       <c r="C632" t="s">
         <v>1412</v>
       </c>
+      <c r="D632" s="4">
+        <v>50</v>
+      </c>
       <c r="E632" t="s">
         <v>61</v>
       </c>
@@ -15430,6 +17317,9 @@
       <c r="C633" t="s">
         <v>1412</v>
       </c>
+      <c r="D633" s="4">
+        <v>50</v>
+      </c>
       <c r="E633" t="s">
         <v>46</v>
       </c>
@@ -15447,6 +17337,9 @@
       <c r="C634" t="s">
         <v>1412</v>
       </c>
+      <c r="D634" s="4">
+        <v>50</v>
+      </c>
       <c r="E634" t="s">
         <v>8</v>
       </c>
@@ -15464,6 +17357,9 @@
       <c r="C635" t="s">
         <v>1412</v>
       </c>
+      <c r="D635" s="4">
+        <v>50</v>
+      </c>
       <c r="E635" t="s">
         <v>61</v>
       </c>
@@ -15481,6 +17377,9 @@
       <c r="C636" t="s">
         <v>1412</v>
       </c>
+      <c r="D636" s="4">
+        <v>50</v>
+      </c>
       <c r="E636" t="s">
         <v>46</v>
       </c>
@@ -15498,6 +17397,9 @@
       <c r="C637" t="s">
         <v>1412</v>
       </c>
+      <c r="D637" s="4">
+        <v>50</v>
+      </c>
       <c r="E637" t="s">
         <v>46</v>
       </c>
@@ -15515,6 +17417,9 @@
       <c r="C638" t="s">
         <v>1412</v>
       </c>
+      <c r="D638" s="4">
+        <v>50</v>
+      </c>
       <c r="E638" t="s">
         <v>8</v>
       </c>
@@ -15532,6 +17437,9 @@
       <c r="C639" t="s">
         <v>1412</v>
       </c>
+      <c r="D639" s="4">
+        <v>50</v>
+      </c>
       <c r="E639" t="s">
         <v>61</v>
       </c>
@@ -15549,6 +17457,9 @@
       <c r="C640" t="s">
         <v>1412</v>
       </c>
+      <c r="D640" s="4">
+        <v>50</v>
+      </c>
       <c r="E640" t="s">
         <v>61</v>
       </c>
@@ -15566,6 +17477,9 @@
       <c r="C641" t="s">
         <v>1412</v>
       </c>
+      <c r="D641" s="4">
+        <v>50</v>
+      </c>
       <c r="E641" t="s">
         <v>46</v>
       </c>
@@ -15583,6 +17497,9 @@
       <c r="C642" t="s">
         <v>1412</v>
       </c>
+      <c r="D642" s="4">
+        <v>50</v>
+      </c>
       <c r="E642" t="s">
         <v>46</v>
       </c>
@@ -15600,6 +17517,9 @@
       <c r="C643" t="s">
         <v>1412</v>
       </c>
+      <c r="D643" s="4">
+        <v>50</v>
+      </c>
       <c r="E643" t="s">
         <v>8</v>
       </c>
@@ -15617,6 +17537,9 @@
       <c r="C644" t="s">
         <v>1412</v>
       </c>
+      <c r="D644" s="4">
+        <v>50</v>
+      </c>
       <c r="E644" t="s">
         <v>61</v>
       </c>
@@ -15634,6 +17557,9 @@
       <c r="C645" t="s">
         <v>1412</v>
       </c>
+      <c r="D645" s="4">
+        <v>50</v>
+      </c>
       <c r="E645" t="s">
         <v>61</v>
       </c>
@@ -15651,6 +17577,9 @@
       <c r="C646" t="s">
         <v>1412</v>
       </c>
+      <c r="D646" s="4">
+        <v>50</v>
+      </c>
       <c r="E646" t="s">
         <v>407</v>
       </c>
@@ -15668,6 +17597,9 @@
       <c r="C647" t="s">
         <v>1412</v>
       </c>
+      <c r="D647" s="4">
+        <v>50</v>
+      </c>
       <c r="E647" t="s">
         <v>46</v>
       </c>
@@ -15685,6 +17617,9 @@
       <c r="C648" t="s">
         <v>1412</v>
       </c>
+      <c r="D648" s="4">
+        <v>50</v>
+      </c>
       <c r="E648" t="s">
         <v>197</v>
       </c>
@@ -15702,6 +17637,9 @@
       <c r="C649" t="s">
         <v>1412</v>
       </c>
+      <c r="D649" s="4">
+        <v>50</v>
+      </c>
       <c r="E649" t="s">
         <v>8</v>
       </c>
@@ -15719,6 +17657,9 @@
       <c r="C650" t="s">
         <v>1412</v>
       </c>
+      <c r="D650" s="4">
+        <v>50</v>
+      </c>
       <c r="E650" t="s">
         <v>865</v>
       </c>
@@ -15736,6 +17677,9 @@
       <c r="C651" t="s">
         <v>1412</v>
       </c>
+      <c r="D651" s="4">
+        <v>50</v>
+      </c>
       <c r="E651" t="s">
         <v>46</v>
       </c>
@@ -15753,6 +17697,9 @@
       <c r="C652" t="s">
         <v>1412</v>
       </c>
+      <c r="D652" s="4">
+        <v>50</v>
+      </c>
       <c r="E652" t="s">
         <v>46</v>
       </c>
@@ -15770,6 +17717,9 @@
       <c r="C653" t="s">
         <v>1412</v>
       </c>
+      <c r="D653" s="4">
+        <v>50</v>
+      </c>
       <c r="E653" t="s">
         <v>46</v>
       </c>
@@ -15787,6 +17737,9 @@
       <c r="C654" t="s">
         <v>1412</v>
       </c>
+      <c r="D654" s="4">
+        <v>50</v>
+      </c>
       <c r="E654" t="s">
         <v>46</v>
       </c>
@@ -15804,6 +17757,9 @@
       <c r="C655" t="s">
         <v>1412</v>
       </c>
+      <c r="D655" s="4">
+        <v>50</v>
+      </c>
       <c r="E655" t="s">
         <v>46</v>
       </c>
@@ -15821,6 +17777,9 @@
       <c r="C656" t="s">
         <v>1412</v>
       </c>
+      <c r="D656" s="4">
+        <v>50</v>
+      </c>
       <c r="E656" t="s">
         <v>8</v>
       </c>
@@ -15838,6 +17797,9 @@
       <c r="C657" t="s">
         <v>1412</v>
       </c>
+      <c r="D657" s="4">
+        <v>50</v>
+      </c>
       <c r="E657" t="s">
         <v>61</v>
       </c>
@@ -15855,6 +17817,9 @@
       <c r="C658" t="s">
         <v>1412</v>
       </c>
+      <c r="D658" s="4">
+        <v>50</v>
+      </c>
       <c r="E658" t="s">
         <v>61</v>
       </c>
@@ -15872,6 +17837,9 @@
       <c r="C659" t="s">
         <v>1412</v>
       </c>
+      <c r="D659" s="4">
+        <v>50</v>
+      </c>
       <c r="E659" t="s">
         <v>46</v>
       </c>
@@ -15889,6 +17857,9 @@
       <c r="C660" t="s">
         <v>1412</v>
       </c>
+      <c r="D660" s="4">
+        <v>50</v>
+      </c>
       <c r="E660" t="s">
         <v>46</v>
       </c>
@@ -15906,6 +17877,9 @@
       <c r="C661" t="s">
         <v>1412</v>
       </c>
+      <c r="D661" s="4">
+        <v>50</v>
+      </c>
       <c r="E661" t="s">
         <v>46</v>
       </c>
@@ -15923,6 +17897,9 @@
       <c r="C662" t="s">
         <v>1412</v>
       </c>
+      <c r="D662" s="4">
+        <v>50</v>
+      </c>
       <c r="E662" t="s">
         <v>46</v>
       </c>
@@ -15940,6 +17917,9 @@
       <c r="C663" t="s">
         <v>1412</v>
       </c>
+      <c r="D663" s="4">
+        <v>50</v>
+      </c>
       <c r="E663" t="s">
         <v>46</v>
       </c>
@@ -15957,6 +17937,9 @@
       <c r="C664" t="s">
         <v>1412</v>
       </c>
+      <c r="D664" s="4">
+        <v>50</v>
+      </c>
       <c r="E664" t="s">
         <v>46</v>
       </c>
@@ -15974,6 +17957,9 @@
       <c r="C665" t="s">
         <v>1412</v>
       </c>
+      <c r="D665" s="4">
+        <v>50</v>
+      </c>
       <c r="E665" t="s">
         <v>865</v>
       </c>
@@ -15991,6 +17977,9 @@
       <c r="C666" t="s">
         <v>1412</v>
       </c>
+      <c r="D666" s="4">
+        <v>50</v>
+      </c>
       <c r="E666" t="s">
         <v>152</v>
       </c>
@@ -16008,6 +17997,9 @@
       <c r="C667" t="s">
         <v>1412</v>
       </c>
+      <c r="D667" s="4">
+        <v>50</v>
+      </c>
       <c r="E667" t="s">
         <v>46</v>
       </c>
@@ -16025,6 +18017,9 @@
       <c r="C668" t="s">
         <v>1412</v>
       </c>
+      <c r="D668" s="4">
+        <v>50</v>
+      </c>
       <c r="E668" t="s">
         <v>5</v>
       </c>
@@ -16042,6 +18037,9 @@
       <c r="C669" t="s">
         <v>1412</v>
       </c>
+      <c r="D669" s="4">
+        <v>50</v>
+      </c>
       <c r="E669" t="s">
         <v>197</v>
       </c>
@@ -16059,6 +18057,9 @@
       <c r="C670" t="s">
         <v>1412</v>
       </c>
+      <c r="D670" s="4">
+        <v>50</v>
+      </c>
       <c r="E670" t="s">
         <v>150</v>
       </c>
@@ -16076,6 +18077,9 @@
       <c r="C671" t="s">
         <v>1412</v>
       </c>
+      <c r="D671" s="4">
+        <v>50</v>
+      </c>
       <c r="E671" t="s">
         <v>197</v>
       </c>
@@ -16093,6 +18097,9 @@
       <c r="C672" t="s">
         <v>1412</v>
       </c>
+      <c r="D672" s="4">
+        <v>50</v>
+      </c>
       <c r="E672" t="s">
         <v>202</v>
       </c>
@@ -16110,6 +18117,9 @@
       <c r="C673" t="s">
         <v>1412</v>
       </c>
+      <c r="D673" s="4">
+        <v>50</v>
+      </c>
       <c r="E673" t="s">
         <v>1217</v>
       </c>
@@ -16124,6 +18134,9 @@
       <c r="C674" t="s">
         <v>1412</v>
       </c>
+      <c r="D674" s="4">
+        <v>50</v>
+      </c>
       <c r="E674" t="s">
         <v>1217</v>
       </c>
@@ -16138,6 +18151,9 @@
       <c r="C675" t="s">
         <v>1412</v>
       </c>
+      <c r="D675" s="4">
+        <v>50</v>
+      </c>
       <c r="E675" t="s">
         <v>1217</v>
       </c>
@@ -16152,6 +18168,9 @@
       <c r="C676" t="s">
         <v>1412</v>
       </c>
+      <c r="D676" s="4">
+        <v>50</v>
+      </c>
       <c r="E676" t="s">
         <v>1217</v>
       </c>
@@ -16166,6 +18185,9 @@
       <c r="C677" t="s">
         <v>1412</v>
       </c>
+      <c r="D677" s="4">
+        <v>50</v>
+      </c>
       <c r="E677" t="s">
         <v>1217</v>
       </c>
@@ -16180,6 +18202,9 @@
       <c r="C678" t="s">
         <v>1412</v>
       </c>
+      <c r="D678" s="4">
+        <v>50</v>
+      </c>
       <c r="E678" t="s">
         <v>1217</v>
       </c>
@@ -16194,6 +18219,9 @@
       <c r="C679" t="s">
         <v>1412</v>
       </c>
+      <c r="D679" s="4">
+        <v>50</v>
+      </c>
       <c r="E679" t="s">
         <v>1230</v>
       </c>
@@ -16208,6 +18236,9 @@
       <c r="C680" t="s">
         <v>1412</v>
       </c>
+      <c r="D680" s="4">
+        <v>50</v>
+      </c>
       <c r="E680" t="s">
         <v>1230</v>
       </c>
@@ -16222,6 +18253,9 @@
       <c r="C681" t="s">
         <v>1412</v>
       </c>
+      <c r="D681" s="4">
+        <v>50</v>
+      </c>
       <c r="E681" t="s">
         <v>1230</v>
       </c>
@@ -16236,6 +18270,9 @@
       <c r="C682" t="s">
         <v>1412</v>
       </c>
+      <c r="D682" s="4">
+        <v>50</v>
+      </c>
       <c r="E682" t="s">
         <v>1230</v>
       </c>
@@ -16250,6 +18287,9 @@
       <c r="C683" t="s">
         <v>1412</v>
       </c>
+      <c r="D683" s="4">
+        <v>50</v>
+      </c>
       <c r="E683" t="s">
         <v>1230</v>
       </c>
@@ -16264,6 +18304,9 @@
       <c r="C684" t="s">
         <v>1412</v>
       </c>
+      <c r="D684" s="4">
+        <v>50</v>
+      </c>
       <c r="E684" t="s">
         <v>1230</v>
       </c>
@@ -16278,6 +18321,9 @@
       <c r="C685" t="s">
         <v>1412</v>
       </c>
+      <c r="D685" s="4">
+        <v>50</v>
+      </c>
       <c r="E685" t="s">
         <v>1230</v>
       </c>
@@ -16292,6 +18338,9 @@
       <c r="C686" t="s">
         <v>1412</v>
       </c>
+      <c r="D686" s="4">
+        <v>50</v>
+      </c>
       <c r="E686" t="s">
         <v>1230</v>
       </c>
@@ -16306,6 +18355,9 @@
       <c r="C687" t="s">
         <v>1412</v>
       </c>
+      <c r="D687" s="4">
+        <v>50</v>
+      </c>
       <c r="E687" t="s">
         <v>1230</v>
       </c>
@@ -16320,6 +18372,9 @@
       <c r="C688" t="s">
         <v>1412</v>
       </c>
+      <c r="D688" s="4">
+        <v>50</v>
+      </c>
       <c r="E688" t="s">
         <v>1247</v>
       </c>
@@ -16334,6 +18389,9 @@
       <c r="C689" t="s">
         <v>1412</v>
       </c>
+      <c r="D689" s="4">
+        <v>50</v>
+      </c>
       <c r="E689" t="s">
         <v>1250</v>
       </c>
@@ -16348,6 +18406,9 @@
       <c r="C690" t="s">
         <v>1412</v>
       </c>
+      <c r="D690" s="4">
+        <v>50</v>
+      </c>
       <c r="E690" t="s">
         <v>1253</v>
       </c>
@@ -16362,6 +18423,9 @@
       <c r="C691" t="s">
         <v>1412</v>
       </c>
+      <c r="D691" s="4">
+        <v>50</v>
+      </c>
       <c r="E691" t="s">
         <v>1253</v>
       </c>
@@ -16376,6 +18440,9 @@
       <c r="C692" t="s">
         <v>1412</v>
       </c>
+      <c r="D692" s="4">
+        <v>50</v>
+      </c>
       <c r="E692" t="s">
         <v>1253</v>
       </c>
@@ -16390,6 +18457,9 @@
       <c r="C693" t="s">
         <v>1412</v>
       </c>
+      <c r="D693" s="4">
+        <v>50</v>
+      </c>
       <c r="E693" t="s">
         <v>1253</v>
       </c>
@@ -16404,6 +18474,9 @@
       <c r="C694" t="s">
         <v>1412</v>
       </c>
+      <c r="D694" s="4">
+        <v>50</v>
+      </c>
       <c r="E694" t="s">
         <v>1253</v>
       </c>
@@ -16418,6 +18491,9 @@
       <c r="C695" t="s">
         <v>1412</v>
       </c>
+      <c r="D695" s="4">
+        <v>50</v>
+      </c>
       <c r="E695" t="s">
         <v>15</v>
       </c>
@@ -16435,6 +18511,9 @@
       <c r="C696" t="s">
         <v>1412</v>
       </c>
+      <c r="D696" s="4">
+        <v>50</v>
+      </c>
       <c r="E696" t="s">
         <v>15</v>
       </c>
@@ -16452,6 +18531,9 @@
       <c r="C697" t="s">
         <v>1412</v>
       </c>
+      <c r="D697" s="4">
+        <v>50</v>
+      </c>
       <c r="E697" t="s">
         <v>18</v>
       </c>
@@ -16469,6 +18551,9 @@
       <c r="C698" t="s">
         <v>1412</v>
       </c>
+      <c r="D698" s="4">
+        <v>50</v>
+      </c>
       <c r="E698" t="s">
         <v>38</v>
       </c>
@@ -16486,6 +18571,9 @@
       <c r="C699" t="s">
         <v>1412</v>
       </c>
+      <c r="D699" s="4">
+        <v>50</v>
+      </c>
       <c r="E699" t="s">
         <v>18</v>
       </c>
@@ -16503,6 +18591,9 @@
       <c r="C700" t="s">
         <v>1412</v>
       </c>
+      <c r="D700" s="4">
+        <v>50</v>
+      </c>
       <c r="E700" t="s">
         <v>302</v>
       </c>
@@ -16520,6 +18611,9 @@
       <c r="C701" t="s">
         <v>1412</v>
       </c>
+      <c r="D701" s="4">
+        <v>50</v>
+      </c>
       <c r="F701">
         <v>11</v>
       </c>
@@ -16534,6 +18628,9 @@
       <c r="C702" t="s">
         <v>1412</v>
       </c>
+      <c r="D702" s="4">
+        <v>50</v>
+      </c>
       <c r="F702">
         <v>11</v>
       </c>
@@ -16548,6 +18645,9 @@
       <c r="C703" t="s">
         <v>1412</v>
       </c>
+      <c r="D703" s="4">
+        <v>50</v>
+      </c>
       <c r="F703">
         <v>11</v>
       </c>
@@ -16562,6 +18662,9 @@
       <c r="C704" t="s">
         <v>1412</v>
       </c>
+      <c r="D704" s="4">
+        <v>50</v>
+      </c>
       <c r="F704">
         <v>11</v>
       </c>
@@ -16576,6 +18679,9 @@
       <c r="C705" t="s">
         <v>1412</v>
       </c>
+      <c r="D705" s="4">
+        <v>50</v>
+      </c>
       <c r="F705">
         <v>11</v>
       </c>
@@ -16590,6 +18696,9 @@
       <c r="C706" t="s">
         <v>1412</v>
       </c>
+      <c r="D706" s="4">
+        <v>50</v>
+      </c>
       <c r="F706">
         <v>16.5</v>
       </c>
@@ -16604,6 +18713,9 @@
       <c r="C707" t="s">
         <v>1412</v>
       </c>
+      <c r="D707" s="4">
+        <v>50</v>
+      </c>
       <c r="F707">
         <v>18</v>
       </c>
@@ -16618,6 +18730,9 @@
       <c r="C708" t="s">
         <v>1412</v>
       </c>
+      <c r="D708" s="4">
+        <v>50</v>
+      </c>
       <c r="F708">
         <v>22</v>
       </c>
@@ -16632,6 +18747,9 @@
       <c r="C709" t="s">
         <v>1412</v>
       </c>
+      <c r="D709" s="4">
+        <v>50</v>
+      </c>
       <c r="F709">
         <v>35</v>
       </c>
@@ -16646,6 +18764,9 @@
       <c r="C710" t="s">
         <v>1412</v>
       </c>
+      <c r="D710" s="4">
+        <v>50</v>
+      </c>
       <c r="F710">
         <v>38</v>
       </c>
@@ -16660,6 +18781,9 @@
       <c r="C711" t="s">
         <v>1412</v>
       </c>
+      <c r="D711" s="4">
+        <v>50</v>
+      </c>
       <c r="F711">
         <v>59</v>
       </c>
@@ -16674,6 +18798,9 @@
       <c r="C712" t="s">
         <v>1412</v>
       </c>
+      <c r="D712" s="4">
+        <v>50</v>
+      </c>
       <c r="F712">
         <v>70</v>
       </c>
@@ -16688,6 +18815,9 @@
       <c r="C713" t="s">
         <v>1412</v>
       </c>
+      <c r="D713" s="4">
+        <v>50</v>
+      </c>
       <c r="F713">
         <v>18</v>
       </c>
@@ -16702,6 +18832,9 @@
       <c r="C714" t="s">
         <v>1412</v>
       </c>
+      <c r="D714" s="4">
+        <v>50</v>
+      </c>
       <c r="F714">
         <v>15.8</v>
       </c>
@@ -16715,6 +18848,9 @@
       </c>
       <c r="C715" t="s">
         <v>1412</v>
+      </c>
+      <c r="D715" s="4">
+        <v>50</v>
       </c>
       <c r="F715">
         <v>11.5</v>
